--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_30.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2749955.36031984</v>
+        <v>2749955.360319841</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1352863.011345712</v>
+        <v>1124427.16994547</v>
       </c>
     </row>
     <row r="8">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>67.34019441676968</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -707,7 +707,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,10 +716,10 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>300.3112635867726</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -826,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>94.59270453218387</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>101.7806877295488</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>71.50797936955716</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,22 +944,22 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>43.31785343913975</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1096,16 +1096,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1117,10 +1117,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,10 +1133,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>354.5167207190189</v>
       </c>
       <c r="D8" t="n">
-        <v>144.218109454345</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
@@ -1148,10 +1148,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,25 +1178,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1300,10 +1300,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>162.3912409166442</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>55.35547747869148</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896914</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274063</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051993</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784703</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1464,10 +1464,10 @@
         <v>135.5574116118565</v>
       </c>
       <c r="H12" t="n">
-        <v>94.98542483262919</v>
+        <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014437</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1497,7 +1497,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T12" t="n">
         <v>192.9654699154601</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1576,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>272.3492204112475</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>169.743810140447</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113193</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274068</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648052002</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1734,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>138.5070438670631</v>
+        <v>138.5070438670632</v>
       </c>
       <c r="T15" t="n">
         <v>192.9654699154601</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>135.1975152812758</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1813,13 +1813,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>115.5269768002237</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1828,10 +1828,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1904,10 +1904,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717414</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>39.11561436815846</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>157.2874061841567</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2078,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,22 +2236,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2284,19 +2284,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>52.93287083751174</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>69.10399620757929</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2473,13 +2473,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>82.64156856775004</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>56.810295557053</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2533,13 +2533,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274225</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2615,7 +2615,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
-        <v>349.2409687174145</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
         <v>369.731100678469</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2728,7 +2728,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
         <v>110.419245464272</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.74461283341816</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2770,16 +2770,16 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>194.2374908591037</v>
       </c>
     </row>
     <row r="29">
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>411.9645167896915</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="30">
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2956,16 +2956,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>12.23273337288841</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
         <v>110.419245464272</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -3004,19 +3004,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>78.36803333172939</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722634</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3086,7 +3086,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
         <v>349.240968717413</v>
@@ -3187,7 +3187,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3196,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>115.526976800218</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>144.0800242012109</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634814</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274137</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,7 +3320,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498017</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>132.5337594657174</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>143.3158222056533</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634817</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,13 +3667,13 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>101.2898147863554</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>106.2501394820171</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.876045741713</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3895,16 +3895,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>170.2435559338562</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,25 +3943,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>108.0731482326889</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3986,13 +3986,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113192</v>
       </c>
       <c r="I44" t="n">
         <v>81.77913505274074</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
         <v>286.2373523985773</v>
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>121.455767372659</v>
+        <v>204.2694668132214</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1104.379069117473</v>
+        <v>955.5060781830496</v>
       </c>
       <c r="C2" t="n">
-        <v>1104.379069117473</v>
+        <v>586.5435612426379</v>
       </c>
       <c r="D2" t="n">
-        <v>1104.379069117473</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="E2" t="n">
-        <v>1104.379069117473</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F2" t="n">
-        <v>693.3931643278654</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>275.4293562260523</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4355,25 +4355,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>2085.013905493097</v>
       </c>
       <c r="W2" t="n">
-        <v>1881.118241157406</v>
+        <v>1732.245250222983</v>
       </c>
       <c r="X2" t="n">
-        <v>1881.118241157406</v>
+        <v>1732.245250222983</v>
       </c>
       <c r="Y2" t="n">
-        <v>1490.978909181595</v>
+        <v>1342.105918247171</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424004</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4425,7 +4425,7 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2191.89927156006</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>2594.34031553383</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y4" t="n">
-        <v>2373.5477363903</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>877.1727159660345</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>518.9070173592841</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>133.1187647610398</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>126.1732640118363</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2642.120401548716</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2368.607930856721</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>877.1727159660345</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4656,31 +4656,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,28 +4699,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>97.69838933464703</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>97.69838933464703</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>336.2769833124028</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X7" t="n">
-        <v>500.1394333084169</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y7" t="n">
-        <v>279.3468541648867</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>589.4492616060807</v>
+        <v>1271.835978902614</v>
       </c>
       <c r="C8" t="n">
-        <v>220.4867446656689</v>
+        <v>913.7382812066351</v>
       </c>
       <c r="D8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>555.4725825998845</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036446</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036446</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036446</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520779</v>
+        <v>2302.336936304456</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520779</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="V8" t="n">
-        <v>2092.422847177208</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="W8" t="n">
-        <v>1739.654191907094</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="X8" t="n">
-        <v>1366.188433646014</v>
+        <v>2048.575150942547</v>
       </c>
       <c r="Y8" t="n">
-        <v>976.0491016702024</v>
+        <v>1658.435818966735</v>
       </c>
     </row>
     <row r="9">
@@ -4881,7 +4881,7 @@
         <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K9" t="n">
         <v>266.2060027641994</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323012</v>
+        <v>415.489254012808</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>415.489254012808</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>415.489254012808</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
         <v>99.59950625323012</v>
@@ -4987,25 +4987,25 @@
         <v>698.7120650600563</v>
       </c>
       <c r="S10" t="n">
-        <v>484.423641878219</v>
+        <v>698.7120650600563</v>
       </c>
       <c r="T10" t="n">
-        <v>484.423641878219</v>
+        <v>471.403877728658</v>
       </c>
       <c r="U10" t="n">
-        <v>320.3920853967602</v>
+        <v>471.403877728658</v>
       </c>
       <c r="V10" t="n">
-        <v>320.3920853967602</v>
+        <v>471.403877728658</v>
       </c>
       <c r="W10" t="n">
-        <v>320.3920853967602</v>
+        <v>415.489254012808</v>
       </c>
       <c r="X10" t="n">
-        <v>320.3920853967602</v>
+        <v>415.489254012808</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323012</v>
+        <v>415.489254012808</v>
       </c>
     </row>
     <row r="11">
@@ -5018,52 +5018,52 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822461</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514097</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207832</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014295</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
@@ -5072,13 +5072,13 @@
         <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X11" t="n">
         <v>3205.060556590537</v>
@@ -5106,40 +5106,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F12" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G12" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H12" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126484</v>
+        <v>138.7081686256436</v>
       </c>
       <c r="K12" t="n">
-        <v>674.4285624571614</v>
+        <v>264.065728683481</v>
       </c>
       <c r="L12" t="n">
-        <v>904.3916683255106</v>
+        <v>877.9627984403699</v>
       </c>
       <c r="M12" t="n">
-        <v>1224.726987855212</v>
+        <v>1198.298117970072</v>
       </c>
       <c r="N12" t="n">
-        <v>2029.138566119364</v>
+        <v>1542.81877360769</v>
       </c>
       <c r="O12" t="n">
-        <v>2277.891980203326</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P12" t="n">
-        <v>2460.535457816677</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C13" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>562.7003690904323</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>415.8104215925219</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.2170914602859</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241959</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688075</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L13" t="n">
-        <v>507.497233179937</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471201</v>
+        <v>779.0639759471237</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974671</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.483062980068</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585751</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557907</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557904</v>
+        <v>1298.996260473459</v>
       </c>
       <c r="T13" t="n">
-        <v>1275.13085534741</v>
+        <v>1075.210845262965</v>
       </c>
       <c r="U13" t="n">
-        <v>1000.030632709786</v>
+        <v>786.0822064765234</v>
       </c>
       <c r="V13" t="n">
-        <v>1000.030632709786</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W13" t="n">
-        <v>710.6134626728254</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X13" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y13" t="n">
-        <v>710.6134626728254</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="14">
@@ -5252,22 +5252,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
         <v>179.8222783822462</v>
@@ -5276,19 +5276,19 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
         <v>3889.732883643324</v>
@@ -5303,25 +5303,25 @@
         <v>4860.854573014294</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,28 +5355,28 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K15" t="n">
-        <v>485.4047026089405</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L15" t="n">
-        <v>732.1698305154048</v>
+        <v>343.98221936675</v>
       </c>
       <c r="M15" t="n">
-        <v>1039.489963795367</v>
+        <v>1112.350365759212</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059517</v>
+        <v>1916.761944023363</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>2338.526453983299</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028589</v>
+        <v>552.3735683412854</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028589</v>
+        <v>552.3735683412854</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E16" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F16" t="n">
-        <v>97.21709146028589</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028589</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H16" t="n">
         <v>97.21709146028589</v>
@@ -5434,52 +5434,52 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J16" t="n">
-        <v>109.599783924201</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688126</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799419</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471248</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N16" t="n">
-        <v>1049.608084974673</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.48306298007</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585753</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S16" t="n">
-        <v>1382.222354598087</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="T16" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="U16" t="n">
-        <v>869.3083006011507</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="V16" t="n">
-        <v>614.6238123952638</v>
+        <v>1244.231782352016</v>
       </c>
       <c r="W16" t="n">
-        <v>325.2066423583032</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028589</v>
+        <v>954.8146123150552</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028589</v>
+        <v>734.0220331715251</v>
       </c>
     </row>
     <row r="17">
@@ -5492,16 +5492,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155897</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G17" t="n">
         <v>488.1932370805469</v>
@@ -5510,52 +5510,52 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823788</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515099</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.70982261913</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643326</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899129</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
         <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614725</v>
@@ -5589,31 +5589,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256436</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277036</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341677</v>
+        <v>494.0288345518301</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1009.263896089484</v>
       </c>
       <c r="N18" t="n">
-        <v>2107.32270539078</v>
+        <v>1353.784551727102</v>
       </c>
       <c r="O18" t="n">
-        <v>2386.862770609478</v>
+        <v>2023.248313029761</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2543.548934765509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,37 +5647,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>675.7175987609742</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="C19" t="n">
-        <v>506.7814158330673</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="D19" t="n">
-        <v>356.6647764207315</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="E19" t="n">
-        <v>208.7516828383384</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="F19" t="n">
-        <v>208.7516828383384</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>136.7278130442843</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M19" t="n">
         <v>779.0639759471194</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T19" t="n">
-        <v>1340.040102695118</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U19" t="n">
-        <v>1340.040102695118</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V19" t="n">
-        <v>1085.355614489231</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W19" t="n">
-        <v>1085.355614489231</v>
+        <v>585.5099430858318</v>
       </c>
       <c r="X19" t="n">
-        <v>857.3660635912139</v>
+        <v>357.5203921878144</v>
       </c>
       <c r="Y19" t="n">
-        <v>857.3660635912139</v>
+        <v>136.7278130442843</v>
       </c>
     </row>
     <row r="20">
@@ -5747,16 +5747,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5771,28 +5771,28 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5826,25 +5826,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K21" t="n">
-        <v>388.8958536704857</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L21" t="n">
-        <v>618.8589595388348</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="M21" t="n">
-        <v>967.054688195977</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N21" t="n">
-        <v>1771.466266460128</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O21" t="n">
-        <v>2440.930027762787</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3738.865306974908</v>
+        <v>3887.539261805028</v>
       </c>
       <c r="C22" t="n">
-        <v>3738.865306974908</v>
+        <v>3718.603078877121</v>
       </c>
       <c r="D22" t="n">
-        <v>3738.865306974908</v>
+        <v>3718.603078877121</v>
       </c>
       <c r="E22" t="n">
-        <v>3738.865306974908</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="F22" t="n">
-        <v>3738.865306974908</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294729</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294729</v>
+        <v>3570.689985294728</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431058</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436455</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042138</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R22" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S22" t="n">
-        <v>4549.859459491672</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T22" t="n">
-        <v>4326.074044281178</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="U22" t="n">
-        <v>4326.074044281178</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="V22" t="n">
-        <v>4326.074044281178</v>
+        <v>4807.387026713776</v>
       </c>
       <c r="W22" t="n">
-        <v>4036.656874244218</v>
+        <v>4517.969856676816</v>
       </c>
       <c r="X22" t="n">
-        <v>3808.667323346201</v>
+        <v>4289.980305778799</v>
       </c>
       <c r="Y22" t="n">
-        <v>3738.865306974908</v>
+        <v>4069.187726635268</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823791</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514095</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,34 +5999,34 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
         <v>3205.060556590537</v>
@@ -6063,28 +6063,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>263.5382936126483</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>263.5382936126483</v>
+        <v>901.6749225845922</v>
       </c>
       <c r="M24" t="n">
-        <v>808.8370773579848</v>
+        <v>1670.043068977054</v>
       </c>
       <c r="N24" t="n">
-        <v>1138.699705022017</v>
+        <v>2014.563724614672</v>
       </c>
       <c r="O24" t="n">
-        <v>1808.163466324677</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>673.9335914287639</v>
+        <v>3925.399532794549</v>
       </c>
       <c r="C25" t="n">
-        <v>673.9335914287639</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="D25" t="n">
-        <v>523.8169520164281</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="E25" t="n">
-        <v>523.8169520164281</v>
+        <v>3756.463349866643</v>
       </c>
       <c r="F25" t="n">
-        <v>376.9270045185178</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G25" t="n">
-        <v>208.7516828383384</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H25" t="n">
-        <v>208.7516828383384</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J25" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431057</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436454</v>
       </c>
       <c r="P25" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042137</v>
       </c>
       <c r="Q25" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557903</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="S25" t="n">
-        <v>1441.532133631587</v>
+        <v>4749.779469576119</v>
       </c>
       <c r="T25" t="n">
-        <v>1217.746718421093</v>
+        <v>4525.994054365625</v>
       </c>
       <c r="U25" t="n">
-        <v>928.6180796346507</v>
+        <v>4236.865415579183</v>
       </c>
       <c r="V25" t="n">
-        <v>673.9335914287639</v>
+        <v>4236.865415579183</v>
       </c>
       <c r="W25" t="n">
-        <v>673.9335914287639</v>
+        <v>4236.865415579183</v>
       </c>
       <c r="X25" t="n">
-        <v>673.9335914287639</v>
+        <v>4008.875864681166</v>
       </c>
       <c r="Y25" t="n">
-        <v>673.9335914287639</v>
+        <v>4008.875864681166</v>
       </c>
     </row>
     <row r="26">
@@ -6200,25 +6200,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822478</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028589</v>
@@ -6263,13 +6263,13 @@
         <v>3931.294970121732</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6303,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>222.5746515181233</v>
       </c>
       <c r="L27" t="n">
-        <v>904.3916683255102</v>
+        <v>671.945270880263</v>
       </c>
       <c r="M27" t="n">
-        <v>1224.726987855212</v>
+        <v>671.945270880263</v>
       </c>
       <c r="N27" t="n">
-        <v>1785.124911043099</v>
+        <v>1476.356849144414</v>
       </c>
       <c r="O27" t="n">
-        <v>2033.878325127062</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>821.846685011157</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="C28" t="n">
-        <v>821.846685011157</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="D28" t="n">
-        <v>671.7300455988212</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="E28" t="n">
-        <v>523.8169520164281</v>
+        <v>674.2349604684849</v>
       </c>
       <c r="F28" t="n">
-        <v>376.9270045185178</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G28" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
         <v>208.7516828383384</v>
@@ -6394,40 +6394,40 @@
         <v>779.0639759471194</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974668</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980065</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585748</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557904</v>
       </c>
       <c r="R28" t="n">
-        <v>1478.972217190814</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="S28" t="n">
-        <v>1478.972217190814</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="T28" t="n">
-        <v>1478.972217190814</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="U28" t="n">
-        <v>1478.972217190814</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="V28" t="n">
-        <v>1224.287728984927</v>
+        <v>1387.841167119729</v>
       </c>
       <c r="W28" t="n">
-        <v>1224.287728984927</v>
+        <v>1098.423997082769</v>
       </c>
       <c r="X28" t="n">
-        <v>1224.287728984927</v>
+        <v>870.4344461847513</v>
       </c>
       <c r="Y28" t="n">
-        <v>1003.495149841397</v>
+        <v>674.2349604684849</v>
       </c>
     </row>
     <row r="29">
@@ -6437,16 +6437,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
         <v>904.3190116155888</v>
@@ -6506,7 +6506,7 @@
         <v>3205.060556590538</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,76 +6516,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525782</v>
+        <v>3224.712326690735</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714512</v>
+        <v>3050.259297409608</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201101999</v>
+        <v>2901.324887748357</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047445</v>
+        <v>2742.087432742901</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316295</v>
+        <v>2595.552874769786</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358148</v>
+        <v>2458.626196373971</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675025</v>
+        <v>2362.681322805659</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028589</v>
+        <v>2334.498159098443</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>2500.819361250805</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>2649.889045452865</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341676</v>
+        <v>3022.616552457153</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>3329.936685737115</v>
       </c>
       <c r="N30" t="n">
-        <v>2107.32270539078</v>
+        <v>4134.348264001266</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>4383.101678085229</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>4565.74515569858</v>
       </c>
       <c r="Q30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R30" t="n">
-        <v>2623.573505376138</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S30" t="n">
-        <v>2483.667400459913</v>
+        <v>4720.948468098069</v>
       </c>
       <c r="T30" t="n">
-        <v>2288.75278438369</v>
+        <v>4526.033852021847</v>
       </c>
       <c r="U30" t="n">
-        <v>2060.647860003077</v>
+        <v>4297.928927641234</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771334</v>
+        <v>4062.776819409491</v>
       </c>
       <c r="W30" t="n">
-        <v>1571.258395043133</v>
+        <v>3808.539462681289</v>
       </c>
       <c r="X30" t="n">
-        <v>1363.4068948376</v>
+        <v>3600.687962475757</v>
       </c>
       <c r="Y30" t="n">
-        <v>1155.646596072646</v>
+        <v>3392.927663710803</v>
       </c>
     </row>
     <row r="31">
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>221.1079791745893</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="C31" t="n">
-        <v>221.1079791745893</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="D31" t="n">
-        <v>221.1079791745893</v>
+        <v>675.2581065529677</v>
       </c>
       <c r="E31" t="n">
-        <v>221.1079791745893</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="F31" t="n">
-        <v>221.1079791745893</v>
+        <v>527.3450129705745</v>
       </c>
       <c r="G31" t="n">
-        <v>208.7516828383384</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H31" t="n">
         <v>208.7516828383384</v>
@@ -6643,28 +6643,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347409</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609669</v>
+        <v>1084.896122281225</v>
       </c>
       <c r="V31" t="n">
-        <v>731.31772835508</v>
+        <v>1084.896122281225</v>
       </c>
       <c r="W31" t="n">
-        <v>441.9005583181194</v>
+        <v>1084.896122281225</v>
       </c>
       <c r="X31" t="n">
-        <v>441.9005583181194</v>
+        <v>856.9065713832074</v>
       </c>
       <c r="Y31" t="n">
-        <v>221.1079791745893</v>
+        <v>856.9065713832074</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
@@ -6695,13 +6695,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J32" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514089</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795207</v>
@@ -6713,37 +6713,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K33" t="n">
-        <v>388.8958536704857</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L33" t="n">
-        <v>1002.792923427374</v>
+        <v>711.1141612171747</v>
       </c>
       <c r="M33" t="n">
-        <v>1440.604255405481</v>
+        <v>1018.434294497136</v>
       </c>
       <c r="N33" t="n">
-        <v>1785.124911043099</v>
+        <v>1453.977845975555</v>
       </c>
       <c r="O33" t="n">
-        <v>2033.878325127062</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P33" t="n">
-        <v>2554.178946862809</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>97.21709146028587</v>
+        <v>4205.109445852782</v>
       </c>
       <c r="C34" t="n">
-        <v>97.21709146028587</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="D34" t="n">
-        <v>97.21709146028587</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="E34" t="n">
-        <v>97.21709146028587</v>
+        <v>4036.173262924875</v>
       </c>
       <c r="F34" t="n">
-        <v>97.21709146028587</v>
+        <v>3889.283315426965</v>
       </c>
       <c r="G34" t="n">
-        <v>97.21709146028587</v>
+        <v>3721.107993746786</v>
       </c>
       <c r="H34" t="n">
-        <v>97.21709146028587</v>
+        <v>3570.689985294729</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028587</v>
+        <v>3459.155393916677</v>
       </c>
       <c r="J34" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380586</v>
       </c>
       <c r="K34" t="n">
-        <v>259.7851881688072</v>
+        <v>3621.723490625198</v>
       </c>
       <c r="L34" t="n">
-        <v>507.4972331799365</v>
+        <v>3869.435535636327</v>
       </c>
       <c r="M34" t="n">
-        <v>779.0639759471194</v>
+        <v>4141.00227840351</v>
       </c>
       <c r="N34" t="n">
-        <v>1049.608084974667</v>
+        <v>4411.546387431058</v>
       </c>
       <c r="O34" t="n">
-        <v>1283.483062980064</v>
+        <v>4645.421365436455</v>
       </c>
       <c r="P34" t="n">
-        <v>1460.082827585747</v>
+        <v>4822.021130042138</v>
       </c>
       <c r="Q34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="R34" t="n">
-        <v>1498.916270557903</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S34" t="n">
-        <v>1382.222354598087</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="T34" t="n">
-        <v>1158.436939387592</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="U34" t="n">
-        <v>869.3083006011507</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="V34" t="n">
-        <v>614.6238123952638</v>
+        <v>4715.319195033273</v>
       </c>
       <c r="W34" t="n">
-        <v>325.2066423583032</v>
+        <v>4425.902024996312</v>
       </c>
       <c r="X34" t="n">
-        <v>97.21709146028587</v>
+        <v>4425.902024996312</v>
       </c>
       <c r="Y34" t="n">
-        <v>97.21709146028587</v>
+        <v>4205.109445852782</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805476</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6947,13 +6947,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6968,13 +6968,13 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
         <v>3205.060556590537</v>
@@ -7023,13 +7023,13 @@
         <v>2771.824048372323</v>
       </c>
       <c r="M36" t="n">
-        <v>3540.192194764784</v>
+        <v>3092.159367902025</v>
       </c>
       <c r="N36" t="n">
-        <v>4289.159124556163</v>
+        <v>3896.570946166175</v>
       </c>
       <c r="O36" t="n">
-        <v>4568.69918977486</v>
+        <v>4253.421048821323</v>
       </c>
       <c r="P36" t="n">
         <v>4773.72167055707</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3459.155393916676</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="C37" t="n">
-        <v>3459.155393916676</v>
+        <v>562.3990000507114</v>
       </c>
       <c r="D37" t="n">
-        <v>3459.155393916676</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E37" t="n">
-        <v>3459.155393916676</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F37" t="n">
-        <v>3459.155393916676</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K37" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N37" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O37" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q37" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R37" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S37" t="n">
-        <v>4660.934562929846</v>
+        <v>1253.968682810923</v>
       </c>
       <c r="T37" t="n">
-        <v>4437.149147719352</v>
+        <v>1253.968682810923</v>
       </c>
       <c r="U37" t="n">
-        <v>4148.02050893291</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="V37" t="n">
-        <v>3893.336020727023</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="W37" t="n">
-        <v>3603.918850690063</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="X37" t="n">
-        <v>3459.155393916676</v>
+        <v>964.8400440244812</v>
       </c>
       <c r="Y37" t="n">
-        <v>3459.155393916676</v>
+        <v>744.0474648809511</v>
       </c>
     </row>
     <row r="38">
@@ -7151,46 +7151,46 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D38" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822469</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.2170914602865</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823779</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514077</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
         <v>4801.62743720783</v>
@@ -7254,25 +7254,25 @@
         <v>263.5382936126483</v>
       </c>
       <c r="K39" t="n">
-        <v>644.675512255521</v>
+        <v>388.8958536704857</v>
       </c>
       <c r="L39" t="n">
-        <v>891.4406401619851</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M39" t="n">
-        <v>1198.760773441947</v>
+        <v>1310.113056707336</v>
       </c>
       <c r="N39" t="n">
-        <v>1528.62340110598</v>
+        <v>2114.524634971487</v>
       </c>
       <c r="O39" t="n">
-        <v>1808.163466324677</v>
+        <v>2135.190598349773</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q39" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>199.5300356889277</v>
+        <v>245.130185042679</v>
       </c>
       <c r="C40" t="n">
-        <v>199.5300356889277</v>
+        <v>245.130185042679</v>
       </c>
       <c r="D40" t="n">
-        <v>199.5300356889277</v>
+        <v>245.130185042679</v>
       </c>
       <c r="E40" t="n">
-        <v>199.5300356889277</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F40" t="n">
-        <v>199.5300356889277</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G40" t="n">
         <v>97.21709146028587</v>
@@ -7354,28 +7354,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R40" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S40" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>964.1357418247865</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>675.0071030383447</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V40" t="n">
-        <v>420.3226148324578</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W40" t="n">
-        <v>420.3226148324578</v>
+        <v>754.8946022306075</v>
       </c>
       <c r="X40" t="n">
-        <v>420.3226148324578</v>
+        <v>647.5712290164488</v>
       </c>
       <c r="Y40" t="n">
-        <v>199.5300356889277</v>
+        <v>426.7786498729187</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7385,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003442</v>
@@ -7397,64 +7397,64 @@
         <v>1315.304916405198</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805468</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H41" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7485,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J42" t="n">
         <v>263.5382936126483</v>
       </c>
       <c r="K42" t="n">
-        <v>263.5382936126483</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L42" t="n">
-        <v>877.4353633695371</v>
+        <v>1196.088769018223</v>
       </c>
       <c r="M42" t="n">
-        <v>1184.755496649499</v>
+        <v>1503.408902298185</v>
       </c>
       <c r="N42" t="n">
-        <v>1514.618124313532</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O42" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P42" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q42" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>675.2581065529675</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="C43" t="n">
-        <v>675.2581065529675</v>
+        <v>565.9270610048577</v>
       </c>
       <c r="D43" t="n">
-        <v>675.2581065529675</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="E43" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="F43" t="n">
-        <v>527.3450129705744</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G43" t="n">
-        <v>359.1696912903951</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
         <v>507.4972331799365</v>
@@ -7591,28 +7591,28 @@
         <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T43" t="n">
-        <v>1075.210845262961</v>
+        <v>1278.676370925093</v>
       </c>
       <c r="U43" t="n">
-        <v>1075.210845262961</v>
+        <v>989.5477321386514</v>
       </c>
       <c r="V43" t="n">
-        <v>1075.210845262961</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="W43" t="n">
-        <v>1075.210845262961</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="X43" t="n">
-        <v>847.2212943649436</v>
+        <v>734.8632439327646</v>
       </c>
       <c r="Y43" t="n">
-        <v>847.2212943649436</v>
+        <v>734.8632439327646</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7622,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610193</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155904</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805485</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7667,31 +7667,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="45">
@@ -7722,25 +7722,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J45" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K45" t="n">
-        <v>503.1761674939355</v>
+        <v>264.0657286834809</v>
       </c>
       <c r="L45" t="n">
-        <v>749.9412954003997</v>
+        <v>877.9627984403696</v>
       </c>
       <c r="M45" t="n">
-        <v>1070.276614930101</v>
+        <v>1185.282931720331</v>
       </c>
       <c r="N45" t="n">
-        <v>1874.688193194252</v>
+        <v>1989.694509984482</v>
       </c>
       <c r="O45" t="n">
-        <v>2123.441607278215</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P45" t="n">
         <v>2328.464088060424</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3757.185126911404</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C46" t="n">
-        <v>3757.185126911404</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D46" t="n">
-        <v>3607.068487499069</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I46" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J46" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K46" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O46" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>4860.854573014293</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T46" t="n">
-        <v>4860.854573014293</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U46" t="n">
-        <v>4571.725934227851</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="V46" t="n">
-        <v>4571.725934227851</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="W46" t="n">
-        <v>4282.308764190891</v>
+        <v>874.9271131227924</v>
       </c>
       <c r="X46" t="n">
-        <v>4159.626170885174</v>
+        <v>668.5943183619627</v>
       </c>
       <c r="Y46" t="n">
-        <v>3938.833591741644</v>
+        <v>447.8017392184325</v>
       </c>
     </row>
   </sheetData>
@@ -8076,7 +8076,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8304,7 +8304,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747166</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8790,7 +8790,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445207</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,22 +9003,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>73.53204524669923</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9243,10 +9243,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,13 +9255,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,16 +9480,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>72.7677319884736</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>240.3824752175504</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9957,10 +9957,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>370.8403453034592</v>
+        <v>204.6520115713895</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9975,7 +9975,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10188,28 +10188,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10428,13 +10428,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10443,7 +10443,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10677,10 +10677,10 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>78.09094690550546</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -10905,13 +10905,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711649</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,10 +11139,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>277.6717966208058</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11151,10 +11151,10 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>14.14674423479613</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11376,28 +11376,28 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>217.5740552184163</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>300.2993762248394</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,19 +23422,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>110.4192454642719</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,25 +23461,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.9643524037927</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>13.88813198732981</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>82.39383318338102</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>13.41795773693659</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23665,10 +23665,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23701,13 +23701,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>82.3938331833796</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23716,10 +23716,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>71.30363109611351</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>64.26015487423257</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,22 +24124,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24172,19 +24172,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>199.2047724863162</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>149.4806571445155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24361,13 +24361,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>97.19041161418725</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24376,13 +24376,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>141.1105144265503</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,13 +24421,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.21973957037461</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24658,16 +24658,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>24.34716249299106</v>
       </c>
     </row>
     <row r="29">
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24844,16 +24844,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>154.2608350904892</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
@@ -24892,19 +24892,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>207.8693190668479</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25075,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25084,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,25 +25123,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>82.39383318338523</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>108.0576191226171</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,22 +25309,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,28 +25357,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>65.38705051788583</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>82.39383318338389</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,13 +25555,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>65.20375367702216</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
         <v>148.9138283675361</v>
@@ -25594,25 +25594,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>119.4595159070201</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25783,16 +25783,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>9.588424248081054</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -25804,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,25 +25831,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>113.4744128257003</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26083,10 +26083,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>104.2538880163781</v>
+        <v>21.44018857581571</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="16">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>615781.3273982124</v>
+      </c>
+      <c r="C2" t="n">
         <v>615781.3273982127</v>
       </c>
-      <c r="C2" t="n">
-        <v>615781.3273982129</v>
-      </c>
       <c r="D2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.327398213</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.589606563</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="G2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="I2" t="n">
         <v>586543.5896065626</v>
       </c>
-      <c r="H2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="K2" t="n">
+        <v>586543.5896065627</v>
+      </c>
+      <c r="L2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="M2" t="n">
         <v>586543.5896065631</v>
       </c>
-      <c r="J2" t="n">
+      <c r="N2" t="n">
         <v>586543.5896065629</v>
       </c>
-      <c r="K2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="O2" t="n">
+        <v>586543.5896065634</v>
+      </c>
+      <c r="P2" t="n">
         <v>586543.5896065627</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065633</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="P2" t="n">
-        <v>586543.5896065634</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476897</v>
+        <v>525160.0364768964</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338373</v>
+        <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.139180619</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
-        <v>787.79369057587</v>
+        <v>787.7936905758697</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758698</v>
+        <v>787.7936905758063</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758228</v>
+        <v>787.7936905758299</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758075</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="I4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758024</v>
+        <v>787.7936905758181</v>
       </c>
       <c r="K4" t="n">
-        <v>787.7936905757998</v>
+        <v>787.7936905758074</v>
       </c>
       <c r="L4" t="n">
+        <v>787.7936905757947</v>
+      </c>
+      <c r="M4" t="n">
+        <v>787.7936905758323</v>
+      </c>
+      <c r="N4" t="n">
         <v>787.7936905758695</v>
-      </c>
-      <c r="M4" t="n">
-        <v>787.7936905758695</v>
-      </c>
-      <c r="N4" t="n">
-        <v>787.793690575817</v>
       </c>
       <c r="O4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905757997</v>
       </c>
     </row>
     <row r="5">
@@ -26476,19 +26476,19 @@
         <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871669</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871667</v>
       </c>
       <c r="G5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871667</v>
@@ -26497,19 +26497,19 @@
         <v>91987.32594871667</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871665</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871667</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603603</v>
+        <v>-196104.7690603607</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.1101541844</v>
+        <v>393863.1101541843</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541841</v>
+        <v>393863.1101541845</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.56650962654</v>
+        <v>-31391.56650962558</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.4699672711</v>
+        <v>493768.4699672704</v>
       </c>
       <c r="G6" t="n">
+        <v>493768.4699672703</v>
+      </c>
+      <c r="H6" t="n">
+        <v>493768.4699672702</v>
+      </c>
+      <c r="I6" t="n">
         <v>493768.4699672701</v>
       </c>
-      <c r="H6" t="n">
-        <v>493768.4699672706</v>
-      </c>
-      <c r="I6" t="n">
-        <v>493768.4699672706</v>
-      </c>
       <c r="J6" t="n">
-        <v>317345.2507746775</v>
+        <v>317345.2507746777</v>
       </c>
       <c r="K6" t="n">
-        <v>493768.4699672706</v>
+        <v>493768.4699672703</v>
       </c>
       <c r="L6" t="n">
-        <v>493768.4699672702</v>
+        <v>493768.4699672704</v>
       </c>
       <c r="M6" t="n">
-        <v>358967.4547334335</v>
+        <v>358967.4547334334</v>
       </c>
       <c r="N6" t="n">
-        <v>493768.4699672705</v>
+        <v>493768.4699672703</v>
       </c>
       <c r="O6" t="n">
+        <v>493768.4699672709</v>
+      </c>
+      <c r="P6" t="n">
         <v>493768.4699672703</v>
-      </c>
-      <c r="P6" t="n">
-        <v>493768.4699672709</v>
       </c>
     </row>
   </sheetData>
@@ -26744,13 +26744,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541011</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541006</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541004</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541004</v>
@@ -26802,13 +26802,13 @@
         <v>1215.213643253574</v>
       </c>
       <c r="G4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
         <v>1215.213643253574</v>
@@ -26817,7 +26817,7 @@
         <v>1215.213643253574</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26826,10 +26826,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
     </row>
   </sheetData>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370145</v>
+        <v>452.6387412370139</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990176</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.926370499018</v>
+        <v>540.9263704990178</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>256.5825783475875</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27436,10 +27436,10 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>27.44099488336235</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27537,7 +27537,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27546,10 +27546,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>50.82834349074737</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>123.9289676594883</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>342.2761906512378</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27664,22 +27664,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>112.7712650795942</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27795,7 +27795,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>1.882105749397248</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,16 +27816,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27837,10 +27837,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,10 +27853,10 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10.75617105198864</v>
       </c>
       <c r="D8" t="n">
-        <v>210.464932166338</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
@@ -27868,10 +27868,10 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,25 +27898,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28020,10 +28020,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28059,25 +28059,25 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>123.8906333253335</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>231.1675208578995</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>-9.032423543847198e-13</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28506,7 +28506,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>5.278858831540371e-12</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -28624,7 +28624,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>-1.03101067912999e-12</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>-1.364242052659392e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29335,7 +29335,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-1.534772309241816e-12</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-1.155547381919295e-12</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -31145,7 +31145,7 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>35.71704454957967</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
@@ -31604,7 +31604,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653305</v>
+        <v>87.78329382423996</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.33822072544362</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444948</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176653</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961207</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041492</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304446</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565525</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927192</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540892</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946997</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.49028336475</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
-        <v>209.694507644648</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104657</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354895</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354104</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386727</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127071</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215735</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622985</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813466</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>234.0162882203126</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>94.5893828748811</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095119</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677468</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361497</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081166</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990347</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298635</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
-        <v>105.8669502822384</v>
+        <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557936</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196126</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171322</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263753</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065634</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P13" t="n">
-        <v>181.1050413469075</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235693</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337677</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336903</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892252</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351823</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
         <v>34.18755300444946</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.634194604149</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304442</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565521</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946995</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647498</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446479</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104652</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
-        <v>14.61306122562945</v>
+        <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,43 +32072,43 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127067</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622983</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358987</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813464</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855528</v>
+        <v>174.7586827030045</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458551</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677466</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361493</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1175069441680332</v>
+        <v>0.1175069441680331</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H16" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298632</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K16" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L16" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
         <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263752</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
-        <v>181.1050413469074</v>
+        <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337673</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351819</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
         <v>34.18755300444946</v>
@@ -32245,13 +32245,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647497</v>
@@ -32266,7 +32266,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32315,34 +32315,34 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358986</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724848</v>
+        <v>196.8684262706589</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855527</v>
       </c>
       <c r="P18" t="n">
-        <v>285.0631269188124</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32382,10 +32382,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H19" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
         <v>45.03122946298631</v>
@@ -32394,10 +32394,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K19" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L19" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
         <v>234.725964217132</v>
@@ -32406,7 +32406,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32418,13 +32418,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32552,13 +32552,13 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>28.14182740145492</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32567,13 +32567,13 @@
         <v>424.9599466855527</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
@@ -32728,7 +32728,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.490283364748</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
@@ -32789,19 +32789,19 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>68.78887215966807</v>
       </c>
       <c r="P24" t="n">
         <v>341.067822345855</v>
@@ -32810,7 +32810,7 @@
         <v>227.9948068710957</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
         <v>33.17612723677465</v>
@@ -33023,31 +33023,31 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>218.0578460103729</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
         <v>33.17612723677465</v>
@@ -33266,7 +33266,7 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>144.2064657938784</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724847</v>
@@ -33275,10 +33275,10 @@
         <v>464.5362854813463</v>
       </c>
       <c r="O30" t="n">
-        <v>368.95525125851</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
@@ -33497,7 +33497,7 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -33506,19 +33506,19 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M33" t="n">
-        <v>118.6626388367726</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>91.94231903111199</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P33" t="n">
         <v>341.067822345855</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>408.5315900543038</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O36" t="n">
         <v>424.9599466855527</v>
@@ -33892,7 +33892,7 @@
         <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961197</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041489</v>
@@ -33913,7 +33913,7 @@
         <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647489</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
@@ -33974,7 +33974,7 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
-        <v>258.3632915000356</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>387.8120847358986</v>
@@ -33986,16 +33986,16 @@
         <v>464.5362854813463</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>163.4709549275616</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>227.9948068710957</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
         <v>33.17612723677465</v>
@@ -34211,7 +34211,7 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
         <v>387.8120847358986</v>
@@ -34232,7 +34232,7 @@
         <v>227.9948068710957</v>
       </c>
       <c r="R42" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
         <v>33.17612723677465</v>
@@ -34448,13 +34448,13 @@
         <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813463</v>
@@ -34463,13 +34463,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710957</v>
       </c>
       <c r="R45" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
         <v>33.17612723677465</v>
@@ -34793,10 +34793,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751866</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35024,7 +35024,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35033,7 +35033,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415082</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303334</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109078</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221123</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081124</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951478</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109128</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502052</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034983</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953157</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005181</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M12" t="n">
         <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415668</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>485.2823630525976</v>
       </c>
       <c r="P12" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q12" t="n">
-        <v>164.6848965247087</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686868</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556565</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299107</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799288</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789728</v>
+        <v>274.3098411789769</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056039</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206031</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187487</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415081</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303332</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109074</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221119</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.499584150205</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349819</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>224.1074838346386</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560245</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504665</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411083</v>
+        <v>426.0247575352896</v>
       </c>
       <c r="P15" t="n">
         <v>207.0934149315248</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209233</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016557085</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299106</v>
@@ -35811,19 +35811,19 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056038</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O16" t="n">
-        <v>236.237351520603</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118009</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.2256999718748</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
         <v>528.6897561303331</v>
@@ -35893,19 +35893,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q17" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35960,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490674</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879393</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560244</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004663</v>
+        <v>520.4394560986404</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415666</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>282.3637022411083</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P18" t="n">
-        <v>151.0887195044822</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507419</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
@@ -36048,7 +36048,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056037</v>
@@ -36060,7 +36060,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>351.7128572294365</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>405.9623053864865</v>
       </c>
       <c r="O21" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36376,7 +36376,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
         <v>59.82538970349813</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M24" t="n">
-        <v>550.8068522680168</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178378</v>
+        <v>320.0549469919532</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
-        <v>232.285965523585</v>
+        <v>453.9097165274139</v>
       </c>
       <c r="M27" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>566.0585082705932</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36762,7 +36762,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056049</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>376.4924313174634</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N30" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O30" t="n">
-        <v>226.3590068140656</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>620.0980502594836</v>
       </c>
       <c r="M33" t="n">
-        <v>442.2336686647542</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>439.9429812913322</v>
       </c>
       <c r="O33" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,16 +37391,16 @@
         <v>249.2577049560244</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>756.532252314524</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O36" t="n">
-        <v>282.3637022411082</v>
+        <v>360.4546491466137</v>
       </c>
       <c r="P36" t="n">
-        <v>207.0934149315248</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q36" t="n">
         <v>88.01303278507416</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415071</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37561,7 +37561,7 @@
         <v>570.6060255109124</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502041</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349813</v>
@@ -37622,28 +37622,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>384.9870895382552</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M39" t="n">
         <v>310.4243770504664</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>20.87471048311722</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714619</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37780,7 +37780,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303332</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109073</v>
@@ -37859,10 +37859,10 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594836</v>
+        <v>526.9295015768301</v>
       </c>
       <c r="M42" t="n">
         <v>310.4243770504664</v>
@@ -37871,16 +37871,16 @@
         <v>333.1945733980129</v>
       </c>
       <c r="O42" t="n">
-        <v>296.5104464759044</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38096,22 +38096,22 @@
         <v>41.91017895490671</v>
       </c>
       <c r="K45" t="n">
-        <v>368.1494938063556</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594836</v>
       </c>
       <c r="M45" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N45" t="n">
         <v>812.5369477415666</v>
       </c>
       <c r="O45" t="n">
-        <v>251.2660748322851</v>
+        <v>157.703131780395</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315248</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
         <v>298.0903205209232</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_30.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2749955.360319841</v>
+        <v>2825485.029984646</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1124427.16994547</v>
+        <v>1571404.973334336</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1169509.511665969</v>
+        <v>1169509.51166597</v>
       </c>
     </row>
     <row r="9">
@@ -659,25 +661,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>42.23806464701391</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>300.3112635867726</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -756,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250821</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229336</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -801,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>205.7729852034755</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -814,31 +816,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>124.2826752554031</v>
       </c>
       <c r="F4" t="n">
-        <v>94.59270453218387</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853704</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.12274995491435</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -880,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -893,25 +895,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>71.50797936955716</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>199.8692462101358</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,16 +952,16 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1066,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,28 +1098,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>22.28704139029297</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>354.5167207190189</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>325.2557485598865</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1290,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1342,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>97.42715891998027</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1351,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>55.35547747869148</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1385,10 +1387,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1433,7 +1435,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784703</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1467,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1534,16 +1536,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>122.0153542106083</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>169.743810140447</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648052002</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174118</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1704,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1768,10 +1770,10 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>135.1975152812758</v>
+        <v>20.80324402848305</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -1783,7 +1785,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1819,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1907,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784699</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -1941,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>23.86136335150736</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>39.11561436815846</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2065,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710089</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2099,7 +2101,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2178,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,16 +2238,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>115.526976800218</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
-        <v>52.93287083751174</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2321,7 +2323,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206836</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2473,10 +2475,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.64156856775004</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2485,10 +2487,10 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
         <v>148.9138283675361</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2533,13 +2535,13 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>25.82923535834143</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -2573,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274225</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2606,7 +2608,7 @@
         <v>132.9503648051988</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385019</v>
+        <v>208.4827883385038</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>25.15992137230479</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2728,10 +2730,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.2374908591037</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2858,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656055</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2953,7 +2955,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2965,10 +2967,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +3000,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>78.36803333172939</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>216.8744795507591</v>
       </c>
     </row>
     <row r="32">
@@ -3035,19 +3037,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722634</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3128,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3238,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>144.0800242012109</v>
+        <v>176.5406909549378</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3265,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634814</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0785952498017</v>
+        <v>251.078595249801</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3363,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3424,19 +3426,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>82.76001926167731</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>132.5337594657174</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3523,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3667,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3709,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>106.2501394820171</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3746,10 +3748,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F41" t="n">
-        <v>406.876045741713</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
         <v>411.9645167896915</v>
@@ -3758,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,10 +3900,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3910,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -3946,10 +3948,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>108.0731482326889</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3958,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>170.9606397709134</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3992,10 +3994,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H44" t="n">
-        <v>305.2872491113192</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4074,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,10 +4134,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4180,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4192,16 +4194,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>204.2694668132214</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>955.5060781830496</v>
+        <v>841.7662216508352</v>
       </c>
       <c r="C2" t="n">
-        <v>586.5435612426379</v>
+        <v>841.7662216508352</v>
       </c>
       <c r="D2" t="n">
-        <v>228.2778626358874</v>
+        <v>841.7662216508352</v>
       </c>
       <c r="E2" t="n">
-        <v>228.2778626358874</v>
+        <v>841.7662216508352</v>
       </c>
       <c r="F2" t="n">
-        <v>221.3323618866839</v>
+        <v>799.1015098861747</v>
       </c>
       <c r="G2" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224069</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280443</v>
+        <v>1362.238747280442</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977173</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.843319642688</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791251</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332391</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304454</v>
       </c>
       <c r="U2" t="n">
-        <v>2388.358616186807</v>
+        <v>2302.336936304454</v>
       </c>
       <c r="V2" t="n">
-        <v>2085.013905493097</v>
+        <v>1971.274048960883</v>
       </c>
       <c r="W2" t="n">
-        <v>1732.245250222983</v>
+        <v>1618.505393690769</v>
       </c>
       <c r="X2" t="n">
-        <v>1732.245250222983</v>
+        <v>1618.505393690769</v>
       </c>
       <c r="Y2" t="n">
-        <v>1342.105918247171</v>
+        <v>1228.366061714957</v>
       </c>
     </row>
     <row r="3">
@@ -4383,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424004</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764198</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598697</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.9688344179</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517451</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537795</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2525.076107152624</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018221</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430045</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.88420019674</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.71457616758</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207636</v>
       </c>
       <c r="X3" t="n">
         <v>1364.473611002105</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>318.4909684781774</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="C4" t="n">
-        <v>318.4909684781774</v>
+        <v>529.7758821321488</v>
       </c>
       <c r="D4" t="n">
-        <v>318.4909684781774</v>
+        <v>529.7758821321488</v>
       </c>
       <c r="E4" t="n">
-        <v>318.4909684781774</v>
+        <v>404.2378263186104</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>257.3478788207</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>257.3478788207</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036442</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866325</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477911</v>
+        <v>237.8190324477908</v>
       </c>
       <c r="M4" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658207</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502497</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594897</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064339</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064344</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="X4" t="n">
-        <v>500.1394333084171</v>
+        <v>698.7120650600557</v>
       </c>
       <c r="Y4" t="n">
-        <v>500.1394333084171</v>
+        <v>698.7120650600557</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>877.1727159660345</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="C5" t="n">
-        <v>877.1727159660345</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="D5" t="n">
-        <v>518.9070173592841</v>
+        <v>1470.569074795015</v>
       </c>
       <c r="E5" t="n">
-        <v>133.1187647610398</v>
+        <v>1084.780822196771</v>
       </c>
       <c r="F5" t="n">
-        <v>126.1732640118363</v>
+        <v>673.7949174071632</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>255.8311093053501</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4565,19 +4567,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4598,19 +4600,19 @@
         <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>1993.54646147304</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>1640.777806202926</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1267.312047941846</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="Y5" t="n">
-        <v>877.1727159660345</v>
+        <v>1857.168914859137</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4650,10 +4652,10 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4665,22 +4667,22 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>108.9687959810045</v>
+        <v>222.942782082032</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>336.2769833124028</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>108.9687959810045</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>108.9687959810045</v>
+        <v>705.6168211859363</v>
       </c>
       <c r="V7" t="n">
-        <v>108.9687959810045</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="W7" t="n">
-        <v>108.9687959810045</v>
+        <v>450.9323329800494</v>
       </c>
       <c r="X7" t="n">
-        <v>108.9687959810045</v>
+        <v>222.942782082032</v>
       </c>
       <c r="Y7" t="n">
-        <v>108.9687959810045</v>
+        <v>222.942782082032</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.835978902614</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C8" t="n">
-        <v>913.7382812066351</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D8" t="n">
-        <v>555.4725825998845</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>555.4725825998845</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>548.527081850681</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791253</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2302.336936304456</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W8" t="n">
-        <v>2048.575150942547</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="X8" t="n">
-        <v>2048.575150942547</v>
+        <v>2368.607930856721</v>
       </c>
       <c r="Y8" t="n">
-        <v>1658.435818966735</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036446</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M9" t="n">
         <v>1194.968834417902</v>
@@ -4902,28 +4904,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4936,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>415.489254012808</v>
+        <v>418.6523285934728</v>
       </c>
       <c r="C10" t="n">
-        <v>415.489254012808</v>
+        <v>249.7161456655658</v>
       </c>
       <c r="D10" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>99.59950625323012</v>
       </c>
       <c r="G10" t="n">
         <v>99.59950625323012</v>
@@ -4960,7 +4962,7 @@
         <v>99.59950625323012</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036446</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4969,43 +4971,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N10" t="n">
-        <v>529.60403885025</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594902</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064343</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600563</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>471.403877728658</v>
+        <v>600.3007934237124</v>
       </c>
       <c r="U10" t="n">
-        <v>471.403877728658</v>
+        <v>600.3007934237124</v>
       </c>
       <c r="V10" t="n">
-        <v>471.403877728658</v>
+        <v>600.3007934237124</v>
       </c>
       <c r="W10" t="n">
-        <v>415.489254012808</v>
+        <v>600.3007934237124</v>
       </c>
       <c r="X10" t="n">
-        <v>415.489254012808</v>
+        <v>600.3007934237124</v>
       </c>
       <c r="Y10" t="n">
-        <v>415.489254012808</v>
+        <v>600.3007934237124</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256436</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>264.065728683481</v>
+        <v>388.8958536704856</v>
       </c>
       <c r="L12" t="n">
-        <v>877.9627984403699</v>
+        <v>1002.792923427374</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.298117970072</v>
+        <v>1310.113056707336</v>
       </c>
       <c r="N12" t="n">
-        <v>1542.81877360769</v>
+        <v>1654.633712344954</v>
       </c>
       <c r="O12" t="n">
-        <v>2023.248313029761</v>
+        <v>1903.387126428916</v>
       </c>
       <c r="P12" t="n">
-        <v>2543.548934765509</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028589</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028589</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028589</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028589</v>
+        <v>3756.463349866642</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028589</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028589</v>
+        <v>3609.573402368731</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028589</v>
+        <v>3459.155393916675</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241958</v>
+        <v>3471.538086380584</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688073</v>
+        <v>3621.723490625196</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799366</v>
+        <v>3869.435535636325</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471237</v>
+        <v>4141.002278403508</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974671</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980068</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585751</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557907</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557907</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473459</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T13" t="n">
-        <v>1075.210845262965</v>
+        <v>4737.606740478324</v>
       </c>
       <c r="U13" t="n">
-        <v>786.0822064765234</v>
+        <v>4448.478101691882</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952638</v>
+        <v>4193.793613485996</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028589</v>
+        <v>3904.376443449035</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028589</v>
+        <v>3904.376443449035</v>
       </c>
     </row>
     <row r="14">
@@ -5270,49 +5272,49 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
@@ -5352,31 +5354,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028589</v>
+        <v>138.7081686256434</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028589</v>
+        <v>287.7778528277032</v>
       </c>
       <c r="L15" t="n">
-        <v>343.98221936675</v>
+        <v>534.5429807341671</v>
       </c>
       <c r="M15" t="n">
-        <v>1112.350365759212</v>
+        <v>1302.911127126628</v>
       </c>
       <c r="N15" t="n">
-        <v>1916.761944023363</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O15" t="n">
-        <v>2338.526453983299</v>
+        <v>2386.862770609476</v>
       </c>
       <c r="P15" t="n">
-        <v>2543.548934765509</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q15" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>552.3735683412854</v>
+        <v>696.2714843595161</v>
       </c>
       <c r="C16" t="n">
-        <v>552.3735683412854</v>
+        <v>696.2714843595161</v>
       </c>
       <c r="D16" t="n">
-        <v>415.8104215925219</v>
+        <v>675.2581065529675</v>
       </c>
       <c r="E16" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F16" t="n">
-        <v>415.8104215925219</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G16" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J16" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1498.916270557903</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="V16" t="n">
-        <v>1244.231782352016</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="W16" t="n">
-        <v>954.8146123150552</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="X16" t="n">
-        <v>954.8146123150552</v>
+        <v>1098.712528333286</v>
       </c>
       <c r="Y16" t="n">
-        <v>734.0220331715251</v>
+        <v>877.9199491897558</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5498,25 +5500,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5525,40 +5527,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X17" t="n">
         <v>3205.060556590536</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="18">
@@ -5589,31 +5591,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
         <v>138.7081686256435</v>
       </c>
       <c r="K18" t="n">
-        <v>264.0657286834809</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L18" t="n">
-        <v>494.0288345518301</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M18" t="n">
-        <v>1009.263896089484</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N18" t="n">
-        <v>1353.784551727102</v>
+        <v>2107.322705390779</v>
       </c>
       <c r="O18" t="n">
-        <v>2023.248313029761</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P18" t="n">
-        <v>2543.548934765509</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q18" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5649,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>136.7278130442843</v>
+        <v>716.8555221680798</v>
       </c>
       <c r="C19" t="n">
-        <v>136.7278130442843</v>
+        <v>547.9193392401729</v>
       </c>
       <c r="D19" t="n">
-        <v>136.7278130442843</v>
+        <v>547.9193392401729</v>
       </c>
       <c r="E19" t="n">
-        <v>136.7278130442843</v>
+        <v>523.8169520164281</v>
       </c>
       <c r="F19" t="n">
-        <v>136.7278130442843</v>
+        <v>376.9270045185177</v>
       </c>
       <c r="G19" t="n">
-        <v>136.7278130442843</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>136.7278130442843</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J19" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5689,34 +5691,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P19" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q19" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1164.055751909234</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>874.9271131227924</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="V19" t="n">
-        <v>874.9271131227924</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="W19" t="n">
-        <v>585.5099430858318</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="X19" t="n">
-        <v>357.5203921878144</v>
+        <v>898.5039869983195</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.7278130442843</v>
+        <v>898.5039869983195</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550604</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5747,13 +5749,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795207</v>
@@ -5771,31 +5773,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S20" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465303</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121732</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851618</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590538</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614726</v>
       </c>
     </row>
     <row r="21">
@@ -5826,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="K21" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="L21" t="n">
-        <v>263.5382936126483</v>
+        <v>711.1141612171748</v>
       </c>
       <c r="M21" t="n">
-        <v>1031.90644000511</v>
+        <v>1031.449480746877</v>
       </c>
       <c r="N21" t="n">
-        <v>1433.809122337731</v>
+        <v>1835.861059011027</v>
       </c>
       <c r="O21" t="n">
-        <v>2103.272883640391</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2623.573505376138</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3887.539261805028</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="C22" t="n">
-        <v>3718.603078877121</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D22" t="n">
-        <v>3718.603078877121</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H22" t="n">
-        <v>3570.689985294728</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I22" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J22" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K22" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L22" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M22" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N22" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R22" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S22" t="n">
-        <v>4860.854573014293</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T22" t="n">
-        <v>4860.854573014293</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U22" t="n">
-        <v>4860.854573014293</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V22" t="n">
-        <v>4807.387026713776</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W22" t="n">
-        <v>4517.969856676816</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X22" t="n">
-        <v>4289.980305778799</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="Y22" t="n">
-        <v>4069.187726635268</v>
+        <v>97.21709146028589</v>
       </c>
     </row>
     <row r="23">
@@ -5969,28 +5971,28 @@
         <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514095</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -5999,13 +6001,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,28 +6068,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277034</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L24" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636251</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.043068977054</v>
+        <v>1228.513823643587</v>
       </c>
       <c r="N24" t="n">
-        <v>2014.563724614672</v>
+        <v>2032.925401907738</v>
       </c>
       <c r="O24" t="n">
-        <v>2331.418122136705</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="P24" t="n">
-        <v>2536.440602918915</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q24" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3925.399532794549</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="C25" t="n">
-        <v>3756.463349866643</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="D25" t="n">
-        <v>3756.463349866643</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="E25" t="n">
-        <v>3756.463349866643</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="F25" t="n">
-        <v>3609.573402368732</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="G25" t="n">
         <v>3609.573402368732</v>
@@ -6169,28 +6171,28 @@
         <v>4860.854573014293</v>
       </c>
       <c r="R25" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S25" t="n">
-        <v>4749.779469576119</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="T25" t="n">
-        <v>4525.994054365625</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U25" t="n">
-        <v>4236.865415579183</v>
+        <v>4347.940519017357</v>
       </c>
       <c r="V25" t="n">
-        <v>4236.865415579183</v>
+        <v>4093.25603081147</v>
       </c>
       <c r="W25" t="n">
-        <v>4236.865415579183</v>
+        <v>3803.838860774509</v>
       </c>
       <c r="X25" t="n">
-        <v>4008.875864681166</v>
+        <v>3777.748724048912</v>
       </c>
       <c r="Y25" t="n">
-        <v>4008.875864681166</v>
+        <v>3777.748724048912</v>
       </c>
     </row>
     <row r="26">
@@ -6200,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822478</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643324</v>
@@ -6254,22 +6256,22 @@
         <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6303,25 +6305,25 @@
         <v>97.21709146028589</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028589</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K27" t="n">
-        <v>222.5746515181233</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="L27" t="n">
-        <v>671.945270880263</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="M27" t="n">
-        <v>671.945270880263</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N27" t="n">
-        <v>1476.356849144414</v>
+        <v>1433.809122337731</v>
       </c>
       <c r="O27" t="n">
-        <v>2145.820610447073</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="C28" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="D28" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684849</v>
+        <v>412.2823606383756</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404653</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028589</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839242021</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688136</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799429</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471258</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974668</v>
+        <v>1049.608084974673</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.483062980065</v>
+        <v>1283.48306298007</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585748</v>
+        <v>1460.082827585753</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557904</v>
+        <v>1498.916270557909</v>
       </c>
       <c r="R28" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557909</v>
       </c>
       <c r="S28" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557909</v>
       </c>
       <c r="T28" t="n">
-        <v>1387.841167119729</v>
+        <v>1498.916270557909</v>
       </c>
       <c r="U28" t="n">
-        <v>1387.841167119729</v>
+        <v>1209.787631771467</v>
       </c>
       <c r="V28" t="n">
-        <v>1387.841167119729</v>
+        <v>955.1031435655806</v>
       </c>
       <c r="W28" t="n">
-        <v>1098.423997082769</v>
+        <v>665.68597352862</v>
       </c>
       <c r="X28" t="n">
-        <v>870.4344461847513</v>
+        <v>437.6964226306027</v>
       </c>
       <c r="Y28" t="n">
-        <v>674.2349604684849</v>
+        <v>437.6964226306027</v>
       </c>
     </row>
     <row r="29">
@@ -6440,16 +6442,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6458,10 +6460,10 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
         <v>889.2841917514085</v>
@@ -6473,37 +6475,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614725</v>
@@ -6516,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3224.712326690735</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>3050.259297409608</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>2901.324887748357</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>2742.087432742901</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>2595.552874769786</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G30" t="n">
-        <v>2458.626196373971</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H30" t="n">
-        <v>2362.681322805659</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I30" t="n">
-        <v>2334.498159098443</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>2500.819361250805</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>2649.889045452865</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L30" t="n">
-        <v>3022.616552457153</v>
+        <v>534.5429807341675</v>
       </c>
       <c r="M30" t="n">
-        <v>3329.936685737115</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N30" t="n">
-        <v>4134.348264001266</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>4383.101678085229</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>4565.74515569858</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
-        <v>4860.854573014294</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S30" t="n">
-        <v>4720.948468098069</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T30" t="n">
-        <v>4526.033852021847</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U30" t="n">
-        <v>4297.928927641234</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>4062.776819409491</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X30" t="n">
-        <v>3600.687962475757</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y30" t="n">
-        <v>3392.927663710803</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="31">
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>675.2581065529677</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C31" t="n">
-        <v>675.2581065529677</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D31" t="n">
-        <v>675.2581065529677</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E31" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F31" t="n">
-        <v>527.3450129705745</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G31" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H31" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K31" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
         <v>507.4972331799365</v>
@@ -6646,25 +6648,25 @@
         <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T31" t="n">
-        <v>1164.055751909234</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U31" t="n">
-        <v>1084.896122281225</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="V31" t="n">
-        <v>1084.896122281225</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="W31" t="n">
-        <v>1084.896122281225</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="X31" t="n">
-        <v>856.9065713832074</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="Y31" t="n">
-        <v>856.9065713832074</v>
+        <v>745.0706109654338</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6695,55 +6697,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028589</v>
+        <v>232.333204354932</v>
       </c>
       <c r="L33" t="n">
-        <v>711.1141612171747</v>
+        <v>479.098332261396</v>
       </c>
       <c r="M33" t="n">
-        <v>1018.434294497136</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N33" t="n">
-        <v>1453.977845975555</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O33" t="n">
-        <v>2123.441607278215</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4205.109445852782</v>
+        <v>3759.690041781068</v>
       </c>
       <c r="C34" t="n">
-        <v>4036.173262924875</v>
+        <v>3759.690041781068</v>
       </c>
       <c r="D34" t="n">
-        <v>4036.173262924875</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="E34" t="n">
-        <v>4036.173262924875</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="F34" t="n">
-        <v>3889.283315426965</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="G34" t="n">
-        <v>3721.107993746786</v>
+        <v>3609.573402368732</v>
       </c>
       <c r="H34" t="n">
-        <v>3570.689985294729</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916677</v>
+        <v>3459.155393916676</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380586</v>
+        <v>3471.538086380585</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625198</v>
+        <v>3621.723490625197</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636327</v>
+        <v>3869.435535636326</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.00227840351</v>
+        <v>4141.002278403509</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431058</v>
+        <v>4411.546387431056</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436455</v>
+        <v>4645.421365436453</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042138</v>
+        <v>4822.021130042136</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="T34" t="n">
-        <v>4860.854573014294</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="U34" t="n">
-        <v>4860.854573014294</v>
+        <v>4637.069157803799</v>
       </c>
       <c r="V34" t="n">
-        <v>4715.319195033273</v>
+        <v>4458.745227546286</v>
       </c>
       <c r="W34" t="n">
-        <v>4425.902024996312</v>
+        <v>4169.328057509325</v>
       </c>
       <c r="X34" t="n">
-        <v>4425.902024996312</v>
+        <v>3941.338506611308</v>
       </c>
       <c r="Y34" t="n">
-        <v>4205.109445852782</v>
+        <v>3941.338506611308</v>
       </c>
     </row>
     <row r="35">
@@ -6932,13 +6934,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6959,10 +6961,10 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3224.712326690734</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C36" t="n">
-        <v>3050.259297409607</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D36" t="n">
-        <v>2901.324887748356</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E36" t="n">
-        <v>2742.0874327429</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F36" t="n">
-        <v>2595.552874769785</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G36" t="n">
-        <v>2458.62619637397</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H36" t="n">
-        <v>2362.681322805658</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>2334.498159098442</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>2375.989236263799</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>2525.058920465859</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L36" t="n">
-        <v>2771.824048372323</v>
+        <v>877.4353633695368</v>
       </c>
       <c r="M36" t="n">
-        <v>3092.159367902025</v>
+        <v>1184.755496649498</v>
       </c>
       <c r="N36" t="n">
-        <v>3896.570946166175</v>
+        <v>1514.618124313531</v>
       </c>
       <c r="O36" t="n">
-        <v>4253.421048821323</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P36" t="n">
-        <v>4773.72167055707</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q36" t="n">
-        <v>4860.854573014293</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R36" t="n">
-        <v>4860.854573014293</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="S36" t="n">
-        <v>4720.948468098068</v>
+        <v>2483.667400459913</v>
       </c>
       <c r="T36" t="n">
-        <v>4526.033852021846</v>
+        <v>2288.75278438369</v>
       </c>
       <c r="U36" t="n">
-        <v>4297.928927641233</v>
+        <v>2060.647860003077</v>
       </c>
       <c r="V36" t="n">
-        <v>4062.77681940949</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W36" t="n">
-        <v>3808.539462681289</v>
+        <v>1571.258395043133</v>
       </c>
       <c r="X36" t="n">
-        <v>3600.687962475756</v>
+        <v>1363.4068948376</v>
       </c>
       <c r="Y36" t="n">
-        <v>3392.927663710802</v>
+        <v>1155.646596072646</v>
       </c>
     </row>
     <row r="37">
@@ -7069,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>562.3990000507114</v>
+        <v>349.7492534403921</v>
       </c>
       <c r="C37" t="n">
-        <v>562.3990000507114</v>
+        <v>180.8130705124852</v>
       </c>
       <c r="D37" t="n">
-        <v>412.2823606383756</v>
+        <v>180.8130705124852</v>
       </c>
       <c r="E37" t="n">
-        <v>412.2823606383756</v>
+        <v>180.8130705124852</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>180.8130705124852</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J37" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K37" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7111,34 +7113,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P37" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q37" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R37" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1253.968682810923</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1253.968682810923</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>964.8400440244812</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V37" t="n">
-        <v>964.8400440244812</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W37" t="n">
-        <v>964.8400440244812</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="X37" t="n">
-        <v>964.8400440244812</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="Y37" t="n">
-        <v>744.0474648809511</v>
+        <v>531.3977182706318</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822469</v>
+        <v>179.8222783822466</v>
       </c>
       <c r="I38" t="n">
-        <v>97.2170914602865</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823798</v>
       </c>
       <c r="K38" t="n">
-        <v>889.284191751409</v>
+        <v>889.2841917514094</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795207</v>
@@ -7193,31 +7195,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,28 +7253,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>388.8958536704857</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L39" t="n">
-        <v>1002.792923427374</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="M39" t="n">
-        <v>1310.113056707336</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N39" t="n">
-        <v>2114.524634971487</v>
+        <v>1659.000326757765</v>
       </c>
       <c r="O39" t="n">
-        <v>2135.190598349773</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q39" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R39" t="n">
         <v>2623.573505376138</v>
@@ -7306,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="C40" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="D40" t="n">
-        <v>245.130185042679</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028587</v>
@@ -7330,16 +7332,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J40" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
         <v>1049.608084974667</v>
@@ -7348,34 +7350,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>1298.996260473455</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U40" t="n">
-        <v>1298.996260473455</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V40" t="n">
-        <v>1044.311772267568</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W40" t="n">
-        <v>754.8946022306075</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X40" t="n">
-        <v>647.5712290164488</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y40" t="n">
-        <v>426.7786498729187</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7387,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
         <v>904.3190116155888</v>
@@ -7406,55 +7408,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7485,31 +7487,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1196.088769018223</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1503.408902298185</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N42" t="n">
-        <v>1833.271529962217</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O42" t="n">
-        <v>2112.811595180915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P42" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q42" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R42" t="n">
         <v>2623.573505376138</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>734.8632439327646</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="C43" t="n">
-        <v>565.9270610048577</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="D43" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="E43" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="F43" t="n">
-        <v>415.8104215925219</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G43" t="n">
         <v>247.6350999123426</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7585,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
         <v>1387.841167119728</v>
       </c>
       <c r="S43" t="n">
-        <v>1387.841167119728</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T43" t="n">
-        <v>1278.676370925093</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U43" t="n">
-        <v>989.5477321386514</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V43" t="n">
-        <v>734.8632439327646</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W43" t="n">
-        <v>734.8632439327646</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="X43" t="n">
-        <v>734.8632439327646</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="Y43" t="n">
-        <v>734.8632439327646</v>
+        <v>247.6350999123426</v>
       </c>
     </row>
     <row r="44">
@@ -7622,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610193</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155904</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805485</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
         <v>1590.888347795207</v>
@@ -7661,37 +7663,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7713,37 +7715,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358148</v>
+        <v>221.3451287358147</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K45" t="n">
-        <v>264.0657286834809</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="L45" t="n">
-        <v>877.9627984403696</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="M45" t="n">
-        <v>1185.282931720331</v>
+        <v>1031.90644000511</v>
       </c>
       <c r="N45" t="n">
-        <v>1989.694509984482</v>
+        <v>1836.31801826926</v>
       </c>
       <c r="O45" t="n">
-        <v>2145.820610447073</v>
+        <v>2505.781779571919</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2505.781779571919</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>266.1532743881928</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J46" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7822,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1387.841167119728</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T46" t="n">
-        <v>1164.055751909234</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>874.9271131227924</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V46" t="n">
-        <v>874.9271131227924</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W46" t="n">
-        <v>874.9271131227924</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>668.5943183619627</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="Y46" t="n">
-        <v>447.8017392184325</v>
+        <v>97.21709146028581</v>
       </c>
     </row>
   </sheetData>
@@ -8058,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719071</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8298,13 +8300,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050821</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8766,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8775,7 +8777,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8790,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9018,16 +9020,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>45.52166981132082</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9243,10 +9245,10 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9255,16 +9257,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,31 +9479,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>72.7677319884736</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>218.1989877848289</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9716,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>5.422837208777082</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9954,13 +9956,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>204.6520115713895</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
         <v>479.3423743435536</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445216</v>
@@ -10188,31 +10190,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445216</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10425,31 +10427,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10662,31 +10664,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>78.09094690550546</v>
+        <v>3.409358277928106</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10902,22 +10904,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
@@ -11060,7 +11062,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711649</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11142,22 +11144,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>277.6717966208058</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11373,31 +11375,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>300.2993762248394</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23422,16 +23424,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,22 +23466,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>99.53220684778097</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>82.39383318338102</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23555,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23656,10 +23658,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>13.41795773693659</v>
+        <v>127.8122289897293</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -23671,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -23707,13 +23709,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>122.5725992950618</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>71.30363109611351</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,16 +24126,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24147,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,16 +24177,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338523</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>199.2047724863162</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24361,10 +24363,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.19041161418725</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24373,10 +24375,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
         <v>197.9208099836032</v>
@@ -24421,13 +24423,13 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>199.8804200306957</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>154.6720588096325</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24616,10 +24618,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24655,10 +24657,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.34716249299106</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24841,7 +24843,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24888,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>207.8693190668479</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -24901,10 +24903,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>1.710173801335714</v>
       </c>
     </row>
     <row r="32">
@@ -25072,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25126,22 +25128,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>108.0576191226171</v>
+        <v>75.59695236889016</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>83.73354920170027</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>65.38705051788583</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25555,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>30.90698584635159</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25597,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>119.4595159070201</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25788,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25798,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25834,10 +25836,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>113.4744128257003</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25846,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>115.5623585656776</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -26020,10 +26022,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26068,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,16 +26082,16 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>21.44018857581571</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="8">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
   </sheetData>
@@ -26311,19 +26313,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.327398213</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="E2" t="n">
         <v>586543.5896065633</v>
       </c>
       <c r="F2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.5896065632</v>
       </c>
       <c r="G2" t="n">
         <v>586543.5896065627</v>
@@ -26332,28 +26334,28 @@
         <v>586543.5896065627</v>
       </c>
       <c r="I2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065632</v>
+        <v>586543.5896065633</v>
       </c>
       <c r="K2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.589606563</v>
       </c>
       <c r="L2" t="n">
-        <v>586543.5896065629</v>
+        <v>586543.589606563</v>
       </c>
       <c r="M2" t="n">
-        <v>586543.5896065631</v>
+        <v>586543.5896065624</v>
       </c>
       <c r="N2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065634</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065626</v>
       </c>
     </row>
     <row r="3">
@@ -26363,31 +26365,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.879214544</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>4.574859240165097e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768964</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.967965428979369e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806191</v>
+        <v>139059.1391806192</v>
       </c>
       <c r="C4" t="n">
         <v>139059.139180619</v>
@@ -26424,31 +26426,31 @@
         <v>139059.139180619</v>
       </c>
       <c r="E4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="F4" t="n">
+        <v>787.7936905758694</v>
+      </c>
+      <c r="G4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="H4" t="n">
+        <v>787.7936905758102</v>
+      </c>
+      <c r="I4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="J4" t="n">
         <v>787.7936905758697</v>
       </c>
-      <c r="F4" t="n">
-        <v>787.7936905758063</v>
-      </c>
-      <c r="G4" t="n">
-        <v>787.7936905758299</v>
-      </c>
-      <c r="H4" t="n">
+      <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="I4" t="n">
-        <v>787.7936905758696</v>
-      </c>
-      <c r="J4" t="n">
-        <v>787.7936905758181</v>
-      </c>
-      <c r="K4" t="n">
-        <v>787.7936905758074</v>
-      </c>
       <c r="L4" t="n">
-        <v>787.7936905757947</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758323</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
@@ -26457,7 +26459,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
-        <v>787.7936905757997</v>
+        <v>787.7936905758695</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340943</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340947</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871667</v>
-      </c>
-      <c r="F5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871665</v>
@@ -26494,22 +26496,22 @@
         <v>91987.32594871667</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871667</v>
+        <v>91987.32594871659</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603607</v>
+        <v>-196104.7690603596</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.1101541843</v>
+        <v>393863.1101541838</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541845</v>
+        <v>393863.110154184</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.56650962558</v>
+        <v>-31391.56650962532</v>
       </c>
       <c r="F6" t="n">
+        <v>493768.469967271</v>
+      </c>
+      <c r="G6" t="n">
+        <v>493768.46996727</v>
+      </c>
+      <c r="H6" t="n">
+        <v>493768.46996727</v>
+      </c>
+      <c r="I6" t="n">
+        <v>493768.4699672703</v>
+      </c>
+      <c r="J6" t="n">
+        <v>317345.2507746779</v>
+      </c>
+      <c r="K6" t="n">
+        <v>493768.4699672705</v>
+      </c>
+      <c r="L6" t="n">
+        <v>493768.4699672706</v>
+      </c>
+      <c r="M6" t="n">
+        <v>358967.4547334327</v>
+      </c>
+      <c r="N6" t="n">
         <v>493768.4699672704</v>
       </c>
-      <c r="G6" t="n">
+      <c r="O6" t="n">
         <v>493768.4699672703</v>
       </c>
-      <c r="H6" t="n">
+      <c r="P6" t="n">
         <v>493768.4699672702</v>
-      </c>
-      <c r="I6" t="n">
-        <v>493768.4699672701</v>
-      </c>
-      <c r="J6" t="n">
-        <v>317345.2507746777</v>
-      </c>
-      <c r="K6" t="n">
-        <v>493768.4699672703</v>
-      </c>
-      <c r="L6" t="n">
-        <v>493768.4699672704</v>
-      </c>
-      <c r="M6" t="n">
-        <v>358967.4547334334</v>
-      </c>
-      <c r="N6" t="n">
-        <v>493768.4699672703</v>
-      </c>
-      <c r="O6" t="n">
-        <v>493768.4699672709</v>
-      </c>
-      <c r="P6" t="n">
-        <v>493768.4699672703</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26744,16 +26746,16 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>830.3824054541003</v>
+      </c>
+      <c r="H3" t="n">
         <v>830.3824054541005</v>
-      </c>
-      <c r="F3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="G3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541004</v>
       </c>
       <c r="I3" t="n">
         <v>830.3824054541004</v>
@@ -26765,19 +26767,19 @@
         <v>830.3824054541004</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="F4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="G4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26814,10 +26816,10 @@
         <v>1215.213643253574</v>
       </c>
       <c r="K4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="L4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="M4" t="n">
         <v>1215.213643253573</v>
@@ -26826,10 +26828,10 @@
         <v>1215.213643253573</v>
       </c>
       <c r="O4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="P4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
     </row>
   </sheetData>
@@ -26957,25 +26959,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170863</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370139</v>
+        <v>452.6387412370137</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545558</v>
+        <v>674.2872727545553</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990176</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545551</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990178</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,25 +27381,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>364.6379810946975</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748118</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>27.44099488336235</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27521,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>2.017941369558685e-12</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>22.15128739116611</v>
       </c>
       <c r="F4" t="n">
-        <v>50.82834349074737</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27600,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,25 +27615,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>342.2761906512378</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>124.0535265542214</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27670,16 +27672,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27774,7 +27776,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>112.7712650795942</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27786,7 +27788,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27816,28 +27818,28 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>263.9948328516847</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>10.75617105198864</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>44.47535211858258</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28010,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28062,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>127.607946538104</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28071,7 +28073,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>231.1675208578995</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28801,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>-1.307398633798584e-12</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29326,7 +29328,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>-1.545830542411375e-12</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -29454,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>6.41004286687045e-12</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -31039,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340044</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140998</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554461</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727434</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081576</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630667</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405365</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338302</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119863</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954665</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044136</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633789</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727379</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473547</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472035</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141102</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188907</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890687</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478006</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.870296998312</v>
       </c>
       <c r="N3" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736698</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923045</v>
       </c>
       <c r="P3" t="n">
-        <v>35.71704454957967</v>
+        <v>155.1528646479576</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639064</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034977</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131471</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372662</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619148</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078604</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644436</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492003</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813573</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302232</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246924</v>
+        <v>101.2724571246923</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666593</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175835</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383792</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678003</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701161</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197221</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315607</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31604,7 +31606,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>87.78329382423996</v>
+        <v>11.76595806653259</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31750,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,37 +31764,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31837,7 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
@@ -31844,22 +31846,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>234.0162882203126</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.067822345855</v>
+        <v>244.8823070890477</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31868,7 +31870,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H13" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K13" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L13" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304441</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>174.7586827030045</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.067822345855</v>
+        <v>285.0631269188142</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298631</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,31 +32165,31 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32227,7 +32229,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
         <v>128.6967545176652</v>
@@ -32236,31 +32238,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L17" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R17" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32309,31 +32311,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>196.8684262706589</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855527</v>
+        <v>368.9552512585109</v>
       </c>
       <c r="P18" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>110.8952201095118</v>
@@ -32388,7 +32390,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32400,7 +32402,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M19" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
         <v>229.1447054263751</v>
@@ -32412,19 +32414,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H20" t="n">
         <v>34.18755300444946</v>
@@ -32482,13 +32484,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647497</v>
@@ -32503,7 +32505,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32549,16 +32551,16 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813463</v>
@@ -32570,16 +32572,16 @@
         <v>341.067822345855</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R21" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
         <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32619,10 +32621,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I22" t="n">
         <v>45.03122946298631</v>
@@ -32631,10 +32633,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M22" t="n">
         <v>234.725964217132</v>
@@ -32643,7 +32645,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,13 +32657,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32798,13 +32800,13 @@
         <v>452.5584109724847</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O24" t="n">
-        <v>68.78887215966807</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710957</v>
@@ -33023,28 +33025,28 @@
         <v>61.49530078127066</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>57.96164312626632</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855527</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
@@ -33266,25 +33268,25 @@
         <v>288.4168775622983</v>
       </c>
       <c r="L30" t="n">
-        <v>144.2064657938784</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M30" t="n">
         <v>452.5584109724847</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>408.531590054304</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q30" t="n">
         <v>227.9948068710957</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
         <v>33.17612723677465</v>
@@ -33409,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33490,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>274.3223610901632</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>91.94231903111199</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33575,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33587,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33599,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33812,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33824,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33836,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961215</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647489</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33964,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>285.4275061768052</v>
       </c>
       <c r="O39" t="n">
-        <v>163.4709549275616</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34049,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34061,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34073,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724847</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813463</v>
+        <v>425.8974584957643</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>341.067822345855</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.9948068710957</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,7 +34286,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
@@ -34296,10 +34298,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34308,19 +34310,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
@@ -34436,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710957</v>
+        <v>48.88602756655516</v>
       </c>
       <c r="R45" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34523,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34533,10 +34535,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
         <v>211.6522236065632</v>
@@ -34545,19 +34547,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.9372285181309</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343418</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435299</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060962</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492234</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.563508753045</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116796</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898689</v>
+        <v>153.9975062898688</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624581</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713856</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262936</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338901</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245896</v>
       </c>
       <c r="P3" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735645</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>173.811094813734</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34857,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713947</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850084</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535654</v>
       </c>
       <c r="N4" t="n">
-        <v>148.370846145888</v>
+        <v>148.3708461458879</v>
       </c>
       <c r="O4" t="n">
-        <v>120.8664146557981</v>
+        <v>120.866414655798</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873141</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35018,13 +35020,13 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730086</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
@@ -35249,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>138.3897561047522</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35407,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490674</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
         <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N12" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>485.2823630525976</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714619</v>
+        <v>429.3706683146546</v>
       </c>
       <c r="Q12" t="n">
-        <v>70.09551364982758</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686868</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35567,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789769</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35588,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>41.91017895490663</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>426.0247575352896</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315248</v>
+        <v>151.088719504484</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R15" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556555</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35887,25 +35889,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490671</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>520.4394560986404</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N18" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178378</v>
+        <v>226.3590068140665</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q18" t="n">
-        <v>70.09551364982758</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,19 +36041,19 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N19" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
         <v>236.2373515206029</v>
@@ -36060,7 +36062,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36120,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K20" t="n">
         <v>528.6897561303331</v>
@@ -36130,19 +36132,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N20" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q20" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M21" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N21" t="n">
-        <v>405.9623053864865</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O21" t="n">
-        <v>676.2260215178378</v>
+        <v>500.5626900259372</v>
       </c>
       <c r="P21" t="n">
-        <v>525.5561835714619</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299106</v>
@@ -36285,7 +36287,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056037</v>
@@ -36297,7 +36299,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N24" t="n">
-        <v>348.0006622602202</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>320.0549469919532</v>
+        <v>287.7865394498853</v>
       </c>
       <c r="P24" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36671,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>453.9097165274139</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415666</v>
+        <v>405.9623053864865</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178378</v>
       </c>
       <c r="P27" t="n">
-        <v>184.4883612256069</v>
+        <v>525.5561835714619</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016557196</v>
       </c>
       <c r="K28" t="n">
         <v>151.7024285299106</v>
@@ -36762,7 +36764,7 @@
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056049</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O28" t="n">
         <v>236.2373515206029</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K30" t="n">
         <v>150.5754385879393</v>
       </c>
       <c r="L30" t="n">
-        <v>376.4924313174634</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415666</v>
+        <v>756.5322523145243</v>
       </c>
       <c r="O30" t="n">
-        <v>251.2660748322851</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>136.4809221158042</v>
       </c>
       <c r="L33" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>439.9429812913322</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O33" t="n">
-        <v>676.2260215178378</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315248</v>
+        <v>207.0934149315246</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K34" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L34" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M34" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N34" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O34" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P34" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q34" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,28 +37308,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>323.5710298279816</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>812.5369477415666</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>360.4546491466137</v>
+        <v>285.7730605190362</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L37" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M37" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N37" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941509</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502041</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,28 +37624,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415666</v>
+        <v>633.4281684370254</v>
       </c>
       <c r="O39" t="n">
-        <v>20.87471048311722</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,28 +37700,28 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L40" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M40" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N40" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303332</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N41" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,28 +37861,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>526.9295015768301</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504664</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>773.8981207559846</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594836</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O45" t="n">
-        <v>157.703131780395</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>118.9815412163827</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2825485.029984646</v>
+        <v>2818468.015092934</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1571404.973334336</v>
+        <v>638028.726344949</v>
       </c>
     </row>
     <row r="8">
@@ -667,10 +667,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>42.23806464701391</v>
+        <v>90.08403186511953</v>
       </c>
       <c r="G2" t="n">
         <v>413.784170020795</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -715,19 +715,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250821</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229336</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
@@ -803,7 +803,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034755</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>124.2826752554031</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853704</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491435</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>155.2114886365804</v>
       </c>
     </row>
     <row r="5">
@@ -898,22 +898,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>269.6010883662355</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>199.8692462101358</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,19 +946,19 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1110,16 +1110,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>22.28704139029297</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>226.9736586744963</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>325.2557485598865</v>
+        <v>270.7773459850746</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,7 +1299,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>97.42715891998027</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>25.3159054168623</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
         <v>81.77913505274074</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051985</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.64843562452406</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1581,10 +1581,10 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>122.0153542106083</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1627,7 +1627,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560531</v>
       </c>
     </row>
     <row r="15">
@@ -1706,7 +1706,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>20.80324402848305</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>58.9295357621743</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1864,7 +1864,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1943,7 +1943,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>23.86136335150736</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,19 +2049,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2083,7 +2083,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710089</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2098,10 +2098,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113174</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2180,7 +2180,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>115.526976800218</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056515</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -2323,13 +2323,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206836</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>172.7067178467367</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>25.82923535834143</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
-        <v>208.4827883385038</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U26" t="n">
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>25.15992137230479</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -2724,16 +2724,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>197.4852479619985</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2812,7 +2812,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2891,7 +2891,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>216.8744795507591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,7 +3204,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>176.5406909549378</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>143.3158222056514</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3429,16 +3429,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>49.35351558532041</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>82.76001926167731</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3474,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3489,7 +3489,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3748,7 +3748,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -3760,7 +3760,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3915,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>139.153727875004</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,10 +3960,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>170.9606397709134</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>115.5269768002178</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185925</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>841.7662216508352</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>841.7662216508352</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="D2" t="n">
-        <v>841.7662216508352</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="E2" t="n">
-        <v>841.7662216508352</v>
+        <v>890.0954814671036</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861747</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G2" t="n">
         <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224069</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977173</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O2" t="n">
-        <v>2238.843319642688</v>
+        <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018221</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332391</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304454</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2302.336936304454</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1971.274048960883</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1618.505393690769</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>1618.505393690769</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1228.366061714957</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4385,73 +4385,73 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036442</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764198</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598697</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.9688344179</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517451</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537795</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152624</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430045</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.88420019674</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
-        <v>2061.71457616758</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207636</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600557</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="C4" t="n">
-        <v>529.7758821321488</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="D4" t="n">
-        <v>529.7758821321488</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="E4" t="n">
-        <v>404.2378263186104</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="F4" t="n">
-        <v>257.3478788207</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="G4" t="n">
-        <v>257.3478788207</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="H4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036442</v>
+        <v>2022.963088632153</v>
       </c>
       <c r="K4" t="n">
-        <v>110.2451748866325</v>
+        <v>2079.265281698421</v>
       </c>
       <c r="L4" t="n">
-        <v>237.8190324477908</v>
+        <v>2206.839139259579</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658207</v>
+        <v>2351.737007977609</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502497</v>
+        <v>2498.624145662038</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594897</v>
+        <v>2618.281896171278</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064339</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600557</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600557</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600557</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600557</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600557</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600557</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600557</v>
+        <v>2407.731920981262</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600557</v>
+        <v>2179.742370083244</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600557</v>
+        <v>2022.963088632153</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1470.569074795015</v>
+        <v>709.1532345052515</v>
       </c>
       <c r="C5" t="n">
-        <v>1470.569074795015</v>
+        <v>340.1907175648398</v>
       </c>
       <c r="D5" t="n">
-        <v>1470.569074795015</v>
+        <v>340.1907175648398</v>
       </c>
       <c r="E5" t="n">
-        <v>1084.780822196771</v>
+        <v>340.1907175648398</v>
       </c>
       <c r="F5" t="n">
-        <v>673.7949174071632</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>255.8311093053501</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4567,13 +4567,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="Y5" t="n">
-        <v>1857.168914859137</v>
+        <v>1095.753074569373</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M6" t="n">
         <v>1194.968834417902</v>
@@ -4667,28 +4667,28 @@
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>222.942782082032</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>222.942782082032</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>222.942782082032</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>222.942782082032</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>705.6168211859363</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>450.9323329800494</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W7" t="n">
-        <v>450.9323329800494</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X7" t="n">
-        <v>222.942782082032</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.942782082032</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4828,22 +4828,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="X8" t="n">
         <v>2368.607930856721</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
@@ -4886,46 +4886,46 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>418.6523285934728</v>
+        <v>520.9088977430002</v>
       </c>
       <c r="C10" t="n">
-        <v>249.7161456655658</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>600.3007934237124</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>600.3007934237124</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>600.3007934237124</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>600.3007934237124</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>600.3007934237124</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>600.3007934237124</v>
+        <v>702.55736257324</v>
       </c>
     </row>
     <row r="11">
@@ -5023,16 +5023,16 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
         <v>179.8222783822462</v>
@@ -5041,7 +5041,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
@@ -5053,7 +5053,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
@@ -5120,22 +5120,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J12" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K12" t="n">
-        <v>388.8958536704856</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L12" t="n">
-        <v>1002.792923427374</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M12" t="n">
-        <v>1310.113056707336</v>
+        <v>647.5155168583368</v>
       </c>
       <c r="N12" t="n">
-        <v>1654.633712344954</v>
+        <v>1138.699705022018</v>
       </c>
       <c r="O12" t="n">
-        <v>1903.387126428916</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P12" t="n">
         <v>2328.464088060424</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3904.376443449035</v>
+        <v>324.3840174432676</v>
       </c>
       <c r="C13" t="n">
-        <v>3904.376443449035</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="D13" t="n">
-        <v>3904.376443449035</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="E13" t="n">
-        <v>3756.463349866642</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="F13" t="n">
-        <v>3609.573402368731</v>
+        <v>155.4478345153607</v>
       </c>
       <c r="G13" t="n">
-        <v>3609.573402368731</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H13" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I13" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J13" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q13" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R13" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T13" t="n">
-        <v>4737.606740478324</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>4448.478101691882</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V13" t="n">
-        <v>4193.793613485996</v>
+        <v>1244.231782352015</v>
       </c>
       <c r="W13" t="n">
-        <v>3904.376443449035</v>
+        <v>954.8146123150548</v>
       </c>
       <c r="X13" t="n">
-        <v>3904.376443449035</v>
+        <v>726.8250614170374</v>
       </c>
       <c r="Y13" t="n">
-        <v>3904.376443449035</v>
+        <v>506.0324822735073</v>
       </c>
     </row>
     <row r="14">
@@ -5272,16 +5272,16 @@
         <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5305,22 +5305,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W14" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614725</v>
@@ -5357,25 +5357,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>138.7081686256434</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K15" t="n">
-        <v>287.7778528277032</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>534.5429807341671</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.911127126628</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N15" t="n">
-        <v>2107.322705390779</v>
+        <v>1669.996816116898</v>
       </c>
       <c r="O15" t="n">
-        <v>2386.862770609476</v>
+        <v>2033.878325127062</v>
       </c>
       <c r="P15" t="n">
-        <v>2536.440602918915</v>
+        <v>2554.178946862809</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>696.2714843595161</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="C16" t="n">
-        <v>696.2714843595161</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D16" t="n">
-        <v>675.2581065529675</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F16" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5439,19 +5439,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5469,19 +5469,19 @@
         <v>1387.841167119728</v>
       </c>
       <c r="U16" t="n">
-        <v>1098.712528333286</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="V16" t="n">
-        <v>1098.712528333286</v>
+        <v>1133.156678913841</v>
       </c>
       <c r="W16" t="n">
-        <v>1098.712528333286</v>
+        <v>843.7395088768801</v>
       </c>
       <c r="X16" t="n">
-        <v>1098.712528333286</v>
+        <v>784.2147252787242</v>
       </c>
       <c r="Y16" t="n">
-        <v>877.9199491897558</v>
+        <v>563.4221461351941</v>
       </c>
     </row>
     <row r="17">
@@ -5509,31 +5509,31 @@
         <v>488.1932370805466</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822458</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5594,25 +5594,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K18" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L18" t="n">
-        <v>534.5429807341674</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1302.911127126629</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N18" t="n">
-        <v>2107.322705390779</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P18" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>716.8555221680798</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C19" t="n">
-        <v>547.9193392401729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D19" t="n">
-        <v>547.9193392401729</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E19" t="n">
-        <v>523.8169520164281</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F19" t="n">
-        <v>376.9270045185177</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H19" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5697,28 +5697,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1187.92115703528</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T19" t="n">
-        <v>1187.92115703528</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U19" t="n">
-        <v>1187.92115703528</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V19" t="n">
-        <v>1187.92115703528</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W19" t="n">
-        <v>898.5039869983195</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X19" t="n">
-        <v>898.5039869983195</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y19" t="n">
-        <v>898.5039869983195</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550604</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
-        <v>4515.972600141869</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465303</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121732</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851618</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590538</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614726</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028589</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L21" t="n">
-        <v>711.1141612171748</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M21" t="n">
-        <v>1031.449480746877</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N21" t="n">
-        <v>1835.861059011027</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O21" t="n">
-        <v>2331.418122136705</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P21" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5886,40 +5886,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5928,34 +5928,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P22" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1382.222354598087</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="23">
@@ -5965,16 +5965,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F23" t="n">
         <v>904.3190116155888</v>
@@ -5986,13 +5986,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J23" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
@@ -6001,40 +6001,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6056,40 +6056,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N24" t="n">
-        <v>2032.925401907738</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C25" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D25" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E25" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F25" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G25" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4860.854573014293</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>4637.069157803799</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U25" t="n">
-        <v>4347.940519017357</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V25" t="n">
-        <v>4093.25603081147</v>
+        <v>835.416391538794</v>
       </c>
       <c r="W25" t="n">
-        <v>3803.838860774509</v>
+        <v>545.9992215018333</v>
       </c>
       <c r="X25" t="n">
-        <v>3777.748724048912</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y25" t="n">
-        <v>3777.748724048912</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="26">
@@ -6223,43 +6223,43 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014294</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
@@ -6293,34 +6293,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J27" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K27" t="n">
-        <v>263.5382936126483</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L27" t="n">
-        <v>263.5382936126483</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M27" t="n">
-        <v>1031.90644000511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N27" t="n">
-        <v>1433.809122337731</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O27" t="n">
-        <v>2103.272883640391</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P27" t="n">
         <v>2623.573505376138</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="C28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="D28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E28" t="n">
-        <v>412.2823606383756</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F28" t="n">
-        <v>265.3924131404653</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G28" t="n">
-        <v>97.21709146028589</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H28" t="n">
-        <v>97.21709146028589</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028589</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J28" t="n">
-        <v>109.5997839242021</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K28" t="n">
-        <v>259.7851881688136</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L28" t="n">
-        <v>507.4972331799429</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M28" t="n">
-        <v>779.0639759471258</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N28" t="n">
-        <v>1049.608084974673</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O28" t="n">
-        <v>1283.48306298007</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P28" t="n">
-        <v>1460.082827585753</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q28" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557909</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771467</v>
+        <v>1299.436222111439</v>
       </c>
       <c r="V28" t="n">
-        <v>955.1031435655806</v>
+        <v>1044.751733905552</v>
       </c>
       <c r="W28" t="n">
-        <v>665.68597352862</v>
+        <v>755.3345638685918</v>
       </c>
       <c r="X28" t="n">
-        <v>437.6964226306027</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="Y28" t="n">
-        <v>437.6964226306027</v>
+        <v>527.3450129705744</v>
       </c>
     </row>
     <row r="29">
@@ -6439,37 +6439,37 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
@@ -6481,34 +6481,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="30">
@@ -6530,37 +6530,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J30" t="n">
-        <v>138.7081686256435</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K30" t="n">
-        <v>287.7778528277034</v>
+        <v>436.8967109626376</v>
       </c>
       <c r="L30" t="n">
-        <v>534.5429807341675</v>
+        <v>1050.793780719526</v>
       </c>
       <c r="M30" t="n">
-        <v>1302.911127126629</v>
+        <v>1819.161927111988</v>
       </c>
       <c r="N30" t="n">
-        <v>2051.878056918008</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q30" t="n">
         <v>2623.573505376138</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C31" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D31" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F31" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6627,10 +6627,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L31" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M31" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N31" t="n">
         <v>1049.608084974667</v>
@@ -6639,34 +6639,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P31" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q31" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1187.921157035281</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U31" t="n">
-        <v>964.1357418247865</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V31" t="n">
-        <v>964.1357418247865</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W31" t="n">
-        <v>964.1357418247865</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X31" t="n">
-        <v>964.1357418247865</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y31" t="n">
-        <v>745.0706109654338</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
         <v>1701.09316900344</v>
@@ -6688,22 +6688,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6718,13 +6718,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
         <v>4726.561275231264</v>
@@ -6733,16 +6733,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6776,28 +6776,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K33" t="n">
-        <v>232.333204354932</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L33" t="n">
-        <v>479.098332261396</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M33" t="n">
-        <v>1247.466478653857</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N33" t="n">
-        <v>2051.878056918008</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O33" t="n">
-        <v>2331.418122136705</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3759.690041781068</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C34" t="n">
-        <v>3759.690041781068</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G34" t="n">
-        <v>3609.573402368732</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I34" t="n">
-        <v>3459.155393916676</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>3471.538086380585</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K34" t="n">
-        <v>3621.723490625197</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L34" t="n">
-        <v>3869.435535636326</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M34" t="n">
-        <v>4141.002278403509</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N34" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O34" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P34" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R34" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>4860.854573014292</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>4637.069157803799</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>4637.069157803799</v>
+        <v>786.0822064765186</v>
       </c>
       <c r="V34" t="n">
-        <v>4458.745227546286</v>
+        <v>531.3977182706318</v>
       </c>
       <c r="W34" t="n">
-        <v>4169.328057509325</v>
+        <v>241.9805482336712</v>
       </c>
       <c r="X34" t="n">
-        <v>3941.338506611308</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y34" t="n">
-        <v>3941.338506611308</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
@@ -6922,25 +6922,25 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J35" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
         <v>1590.888347795206</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6973,16 +6973,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,28 +7016,28 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K36" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L36" t="n">
-        <v>877.4353633695368</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M36" t="n">
-        <v>1184.755496649498</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N36" t="n">
-        <v>1514.618124313531</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O36" t="n">
-        <v>1797.533454227377</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>349.7492534403921</v>
+        <v>610.8083514132643</v>
       </c>
       <c r="C37" t="n">
-        <v>180.8130705124852</v>
+        <v>441.8721684853574</v>
       </c>
       <c r="D37" t="n">
-        <v>180.8130705124852</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E37" t="n">
-        <v>180.8130705124852</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F37" t="n">
-        <v>180.8130705124852</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T37" t="n">
-        <v>1075.21084526296</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>786.0822064765186</v>
+        <v>1275.130855347408</v>
       </c>
       <c r="V37" t="n">
-        <v>531.3977182706318</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="W37" t="n">
-        <v>531.3977182706318</v>
+        <v>1020.446367141521</v>
       </c>
       <c r="X37" t="n">
-        <v>531.3977182706318</v>
+        <v>792.456816243504</v>
       </c>
       <c r="Y37" t="n">
-        <v>531.3977182706318</v>
+        <v>792.456816243504</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823798</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
@@ -7253,25 +7253,25 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K39" t="n">
-        <v>263.5382936126482</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L39" t="n">
-        <v>263.5382936126482</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M39" t="n">
-        <v>1031.90644000511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N39" t="n">
-        <v>1659.000326757765</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P39" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q39" t="n">
         <v>2623.573505376138</v>
@@ -7308,13 +7308,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E40" t="n">
         <v>97.21709146028587</v>
@@ -7359,25 +7359,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U40" t="n">
-        <v>986.0022165609664</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V40" t="n">
-        <v>731.3177283550796</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W40" t="n">
-        <v>441.900558318119</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y40" t="n">
-        <v>213.9110074201016</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="41">
@@ -7387,13 +7387,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
         <v>1315.304916405196</v>
@@ -7408,55 +7408,55 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q41" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>508.1073603047986</v>
       </c>
       <c r="L42" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061688</v>
       </c>
       <c r="M42" t="n">
-        <v>1608.660951743751</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N42" t="n">
-        <v>2374.820091292176</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O42" t="n">
         <v>2623.573505376138</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,34 +7587,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R43" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="S43" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T43" t="n">
-        <v>964.1357418247858</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U43" t="n">
-        <v>675.007103038344</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V43" t="n">
-        <v>420.3226148324571</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W43" t="n">
-        <v>247.6350999123426</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y43" t="n">
-        <v>247.6350999123426</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="44">
@@ -7624,31 +7624,31 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
         <v>889.2841917514085</v>
@@ -7663,13 +7663,13 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
         <v>4860.854573014292</v>
@@ -7681,19 +7681,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>125.4002551675024</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126481</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K45" t="n">
-        <v>263.5382936126481</v>
+        <v>674.428562457161</v>
       </c>
       <c r="L45" t="n">
-        <v>263.5382936126481</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>1031.90644000511</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1836.31801826926</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>2505.781779571919</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2505.781779571919</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471194</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R46" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S46" t="n">
-        <v>1382.222354598086</v>
+        <v>1187.921157035281</v>
       </c>
       <c r="T46" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247865</v>
       </c>
       <c r="U46" t="n">
-        <v>869.3083006011506</v>
+        <v>675.0071030383447</v>
       </c>
       <c r="V46" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324578</v>
       </c>
       <c r="W46" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954972</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028581</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719071</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>251.4045252050821</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013782</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,16 +8768,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
@@ -8792,7 +8792,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9005,13 +9005,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9020,16 +9020,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.7842838544522</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,13 +9242,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
         <v>465.7050637499999</v>
@@ -9257,16 +9257,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9494,13 +9494,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
-        <v>218.1989877848289</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9722,22 +9722,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>5.422837208777082</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,10 +9956,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
         <v>465.7050637499999</v>
@@ -9968,16 +9968,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,13 +10190,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
@@ -10205,16 +10205,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,13 +10427,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10442,16 +10442,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,25 +10667,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>3.409358277928106</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,10 +10904,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
         <v>465.7050637499999</v>
@@ -10916,13 +10916,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11153,13 +11153,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11378,10 +11378,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
         <v>465.7050637499999</v>
@@ -11390,16 +11390,16 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>108.8451328388535</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23469,10 +23469,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>99.53220684778097</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>127.8122289897293</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>166.7801196268628</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>122.5725992950618</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24177,7 +24177,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>82.39383318338523</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24414,25 +24414,25 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>79.43092547709131</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>199.8804200306957</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>154.6720588096325</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -24612,16 +24612,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>88.75210443657886</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>1.710173801335714</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25074,13 +25074,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,7 +25092,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
         <v>110.419245464272</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>75.59695236889016</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>82.39383318338571</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25317,16 +25317,16 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>99.26195743289195</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>83.73354920170027</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25362,13 +25362,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -25557,7 +25557,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>30.90698584635159</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25599,13 +25599,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S40" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I43" t="n">
         <v>110.419245464272</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>82.39383318338525</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,10 +25848,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>115.5623585656776</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>82.39383318338545</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>192.3581855871779</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754181</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>782058.1194754179</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="16">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.327398213</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982129</v>
       </c>
       <c r="E2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="F2" t="n">
         <v>586543.5896065632</v>
@@ -26331,13 +26331,13 @@
         <v>586543.5896065627</v>
       </c>
       <c r="H2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.5896065626</v>
       </c>
       <c r="I2" t="n">
         <v>586543.5896065629</v>
       </c>
       <c r="J2" t="n">
-        <v>586543.5896065633</v>
+        <v>586543.5896065627</v>
       </c>
       <c r="K2" t="n">
         <v>586543.589606563</v>
@@ -26352,10 +26352,10 @@
         <v>586543.5896065629</v>
       </c>
       <c r="O2" t="n">
-        <v>586543.5896065627</v>
+        <v>586543.589606563</v>
       </c>
       <c r="P2" t="n">
-        <v>586543.5896065626</v>
+        <v>586543.5896065629</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.879214544</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
-        <v>4.574859240165097e-10</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.767800767993322e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.967965428979369e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>134801.0152338372</v>
+        <v>134801.0152338371</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.310193849552888e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,10 +26417,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.1391806192</v>
+        <v>139059.139180619</v>
       </c>
       <c r="C4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
         <v>139059.139180619</v>
@@ -26429,25 +26429,25 @@
         <v>787.7936905758695</v>
       </c>
       <c r="F4" t="n">
+        <v>787.7936905758695</v>
+      </c>
+      <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>787.7936905758695</v>
       </c>
-      <c r="H4" t="n">
-        <v>787.7936905758102</v>
-      </c>
       <c r="I4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.793690575921</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905758697</v>
+        <v>787.7936905759236</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="L4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
         <v>787.7936905758694</v>
@@ -26456,7 +26456,7 @@
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758696</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340943</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
@@ -26484,22 +26484,22 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="I5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="J5" t="n">
+        <v>91987.32594871661</v>
+      </c>
+      <c r="K5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="L5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871665</v>
-      </c>
-      <c r="J5" t="n">
-        <v>91987.32594871667</v>
-      </c>
-      <c r="K5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="L5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
@@ -26508,10 +26508,10 @@
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871665</v>
       </c>
       <c r="P5" t="n">
-        <v>91987.32594871659</v>
+        <v>91987.32594871664</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603596</v>
+        <v>-196104.7690603602</v>
       </c>
       <c r="C6" t="n">
-        <v>393863.1101541838</v>
+        <v>393863.110154184</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.110154184</v>
+        <v>393863.1101541844</v>
       </c>
       <c r="E6" t="n">
-        <v>-31391.56650962532</v>
+        <v>-32366.15776934754</v>
       </c>
       <c r="F6" t="n">
-        <v>493768.469967271</v>
+        <v>492793.8787075491</v>
       </c>
       <c r="G6" t="n">
-        <v>493768.46996727</v>
+        <v>492793.8787075486</v>
       </c>
       <c r="H6" t="n">
-        <v>493768.46996727</v>
+        <v>492793.8787075485</v>
       </c>
       <c r="I6" t="n">
-        <v>493768.4699672703</v>
+        <v>492793.8787075487</v>
       </c>
       <c r="J6" t="n">
-        <v>317345.2507746779</v>
+        <v>316370.6595149556</v>
       </c>
       <c r="K6" t="n">
-        <v>493768.4699672705</v>
+        <v>492793.8787075488</v>
       </c>
       <c r="L6" t="n">
-        <v>493768.4699672706</v>
+        <v>492793.8787075488</v>
       </c>
       <c r="M6" t="n">
-        <v>358967.4547334327</v>
+        <v>357992.8634737112</v>
       </c>
       <c r="N6" t="n">
-        <v>493768.4699672704</v>
+        <v>492793.8787075487</v>
       </c>
       <c r="O6" t="n">
-        <v>493768.4699672703</v>
+        <v>492793.8787075485</v>
       </c>
       <c r="P6" t="n">
-        <v>493768.4699672702</v>
+        <v>492793.8787075487</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26749,22 +26749,22 @@
         <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
         <v>830.3824054541002</v>
@@ -26776,10 +26776,10 @@
         <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541005</v>
       </c>
     </row>
     <row r="4">
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
@@ -26807,13 +26807,13 @@
         <v>1215.213643253573</v>
       </c>
       <c r="H4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
       </c>
       <c r="J4" t="n">
-        <v>1215.213643253574</v>
+        <v>1215.213643253573</v>
       </c>
       <c r="K4" t="n">
         <v>1215.213643253573</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170863</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26974,10 +26974,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27011,10 +27011,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,10 +27257,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27387,10 +27387,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>364.6379810946975</v>
+        <v>316.7920138765919</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748118</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27435,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27523,7 +27523,7 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>2.017941369558685e-12</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27539,28 +27539,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>22.15128739116611</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>63.37316471551443</v>
       </c>
     </row>
     <row r="5">
@@ -27618,22 +27618,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>137.2749573754759</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>124.0535265542214</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27779,16 +27779,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27830,16 +27830,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>263.9948328516847</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>25.16398464933172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>44.47535211858258</v>
+        <v>98.95375469339439</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,7 +28019,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,7 +28064,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>127.607946538104</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>193.2687479352325</v>
       </c>
     </row>
     <row r="11">
@@ -28803,7 +28803,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>-1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29328,13 +29328,13 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>-1.545830542411375e-12</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -29456,7 +29456,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340044</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140998</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554461</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727434</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630667</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405365</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119863</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633789</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727379</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473547</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1214853995472035</v>
+        <v>0.1214853995472036</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141102</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188907</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.870296998312</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N3" t="n">
-        <v>211.3190711736698</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923045</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034977</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131471</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372662</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619148</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078604</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644436</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813573</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302232</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N4" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175835</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383792</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678003</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701161</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197221</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
-        <v>0.03715511451315607</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31372,7 +31372,7 @@
         <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478007</v>
+        <v>132.99849770713</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31606,7 +31606,7 @@
         <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
-        <v>11.76595806653259</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
         <v>176.4169820478007</v>
@@ -31624,7 +31624,7 @@
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31840,31 +31840,31 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215734</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>148.1449823495585</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>244.8823070890477</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
       </c>
       <c r="R12" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
         <v>33.17612723677465</v>
@@ -31998,40 +31998,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L14" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32071,19 +32071,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358984</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
@@ -32092,22 +32092,22 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855525</v>
+        <v>116.2910049759612</v>
       </c>
       <c r="P15" t="n">
-        <v>285.0631269188142</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32153,7 +32153,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32171,7 +32171,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32183,10 +32183,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32226,16 +32226,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32244,7 +32244,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32253,7 +32253,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32262,7 +32262,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32305,7 +32305,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32314,7 +32314,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32323,28 +32323,28 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>212.6272478467031</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>368.9552512585109</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32405,7 +32405,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32417,16 +32417,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L20" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R20" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361492</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H22" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K22" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L22" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M22" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,43 +32700,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,46 +32779,46 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K24" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813463</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32864,7 +32864,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32876,10 +32876,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32888,19 +32888,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,46 +33016,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>57.96164312626632</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33101,7 +33101,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33113,10 +33113,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33125,19 +33125,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446483</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33253,46 +33253,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>216.4869287318327</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>408.531590054304</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33338,7 +33338,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33350,10 +33350,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33362,19 +33362,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33444,7 +33444,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S32" t="n">
         <v>76.06970478104648</v>
@@ -33499,10 +33499,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K33" t="n">
-        <v>274.3223610901632</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
         <v>387.8120847358985</v>
@@ -33511,19 +33511,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
         <v>33.17612723677464</v>
@@ -33736,10 +33736,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
         <v>387.8120847358985</v>
@@ -33748,19 +33748,19 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
         <v>33.17612723677464</v>
@@ -33894,7 +33894,7 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961215</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33973,28 +33973,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>285.4275061768052</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>100.1578341526431</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L41" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,46 +34201,46 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215733</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N42" t="n">
-        <v>425.8974584957643</v>
+        <v>392.6063366508798</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I43" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N43" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I44" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961206</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L44" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M44" t="n">
-        <v>586.1623499565518</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446464</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,46 +34438,46 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H45" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555644</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>48.88602756655516</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>110.8952201095118</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S45" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I46" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M46" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N46" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181309</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435299</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060962</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492234</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
-        <v>153.9975062898688</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624581</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262936</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338901</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245896</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735645</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.811094813734</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,22 +34859,22 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713947</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
-        <v>128.8624823850084</v>
+        <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535654</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N4" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O4" t="n">
-        <v>120.866414655798</v>
+        <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873141</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>289.2671274730086</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35254,7 +35254,7 @@
         <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35272,7 +35272,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>620.0980502594834</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N12" t="n">
-        <v>348.0006622602202</v>
+        <v>496.1456446097787</v>
       </c>
       <c r="O12" t="n">
-        <v>251.2660748322851</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P12" t="n">
-        <v>429.3706683146546</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>41.91017895490663</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>150.5754385879392</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560242</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>776.129440800466</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
         <v>812.5369477415663</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411081</v>
+        <v>367.5570798082463</v>
       </c>
       <c r="P15" t="n">
-        <v>151.088719504484</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>88.01303278507407</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35813,7 +35813,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35825,7 +35825,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35886,13 +35886,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35907,7 +35907,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>776.1294408004662</v>
+        <v>536.1982776746847</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415665</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>226.3590068140665</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36056,13 +36056,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349816</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M21" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415666</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O21" t="n">
-        <v>500.5626900259372</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>88.01303278507419</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L22" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N22" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415666</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O24" t="n">
-        <v>287.7865394498853</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686866</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,28 +36515,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M25" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N25" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>405.9623053864865</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O27" t="n">
-        <v>676.2260215178378</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714619</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016557196</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M28" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N28" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>41.91017895490671</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>150.5754385879393</v>
+        <v>343.1107267700523</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>776.1294408004662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>756.5322523145243</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315248</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>88.01303278507416</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K31" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L31" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M31" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N31" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O31" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P31" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q31" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,25 +37150,25 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>136.4809221158042</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>207.0934149315246</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980128</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O36" t="n">
-        <v>285.7730605190362</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,7 +37542,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.378021941509</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
         <v>528.689756130333</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N39" t="n">
-        <v>633.4281684370254</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O39" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K41" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,22 +37858,22 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594834</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M42" t="n">
-        <v>323.5710298279816</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N42" t="n">
-        <v>773.8981207559846</v>
+        <v>740.6069989111</v>
       </c>
       <c r="O42" t="n">
-        <v>251.2660748322851</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K43" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O43" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P43" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415081</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K44" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349674</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953155</v>
+        <v>168.0012142953156</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005179</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594837</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004663</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157846</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>118.9815412163827</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K46" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O46" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P46" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_0_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2818468.015092934</v>
+        <v>2823407.277941966</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>638028.726344949</v>
+        <v>579652.1061954473</v>
       </c>
     </row>
     <row r="8">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>90.08403186511953</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>17.60801267181501</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
@@ -721,7 +721,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>155.2114886365804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>269.6010883662355</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>13.784170020795</v>
+        <v>376.5400691378558</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -949,10 +949,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>226.9736586744963</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>129.0246247964033</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,16 +1141,16 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>60.46179076613117</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1192,13 +1192,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>270.7773459850746</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1302,7 +1302,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>25.3159054168623</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1390,7 +1390,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527396</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051985</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T11" t="n">
         <v>208.4827883385019</v>
@@ -1469,7 +1469,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1530,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>3.959144123655279e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>57.64843562452406</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,16 +1578,16 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.56452900498332</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417103</v>
       </c>
       <c r="G14" t="n">
         <v>411.9645167896915</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1770,16 +1770,16 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>58.9295357621743</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>122.65197883716</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,10 +2067,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2098,7 +2098,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113174</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274077</v>
@@ -2137,7 +2137,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U20" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952498008</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>37.64907483832668</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2301,13 +2301,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>143.3158222056515</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417103</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
         <v>411.9645167896915</v>
@@ -2529,13 +2529,13 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151918</v>
       </c>
       <c r="V25" t="n">
-        <v>172.7067178467367</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634824</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2614,7 +2614,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701337</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>197.4852479619985</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>139.1537278750038</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
         <v>286.2373523985773</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>33.35146980185854</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>143.3158222056514</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051991</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3365,7 +3365,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>49.35351558532041</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T37" t="n">
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>203.8435192151917</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3517,13 +3517,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3602,7 +3602,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>62.15704198174776</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3714,22 +3714,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>203.8435192151917</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3754,13 +3754,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H41" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3839,7 +3839,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3948,10 +3948,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T43" t="n">
-        <v>139.153727875004</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3997,7 +3997,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4076,7 +4076,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="T46" t="n">
         <v>221.5475610583892</v>
@@ -4200,7 +4200,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>33.35146980185925</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1275.883734065348</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="C2" t="n">
-        <v>1275.883734065348</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>1275.883734065348</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>890.0954814671036</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4357,25 +4357,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2624.334530163044</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.54646147304</v>
+        <v>2370.572744801135</v>
       </c>
       <c r="V2" t="n">
-        <v>1662.48357412947</v>
+        <v>2039.509857457565</v>
       </c>
       <c r="W2" t="n">
-        <v>1662.48357412947</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="X2" t="n">
-        <v>1662.48357412947</v>
+        <v>1686.741202187451</v>
       </c>
       <c r="Y2" t="n">
-        <v>1662.48357412947</v>
+        <v>1686.741202187451</v>
       </c>
     </row>
     <row r="3">
@@ -4403,22 +4403,22 @@
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2022.963088632153</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C4" t="n">
-        <v>2022.963088632153</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D4" t="n">
-        <v>2022.963088632153</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.963088632153</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2407.731920981262</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2179.742370083244</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2022.963088632153</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>709.1532345052515</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="C5" t="n">
-        <v>340.1907175648398</v>
+        <v>1589.326341994619</v>
       </c>
       <c r="D5" t="n">
-        <v>340.1907175648398</v>
+        <v>1231.060643387869</v>
       </c>
       <c r="E5" t="n">
-        <v>340.1907175648398</v>
+        <v>845.2723907896243</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>434.2864860000167</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4573,7 +4573,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4597,22 +4597,22 @@
         <v>2642.120401548716</v>
       </c>
       <c r="T5" t="n">
-        <v>2423.485734520778</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U5" t="n">
-        <v>2169.72394915887</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V5" t="n">
-        <v>1838.661061815299</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W5" t="n">
-        <v>1485.892406545185</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X5" t="n">
-        <v>1485.892406545185</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="Y5" t="n">
-        <v>1095.753074569373</v>
+        <v>1958.288858935031</v>
       </c>
     </row>
     <row r="6">
@@ -4622,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
@@ -4649,7 +4649,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L6" t="n">
         <v>670.8219208598708</v>
@@ -4670,7 +4670,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4758,19 +4758,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V7" t="n">
-        <v>498.8626623130036</v>
+        <v>184.2708856551153</v>
       </c>
       <c r="W7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1591.868758816787</v>
+        <v>863.1126181035243</v>
       </c>
       <c r="C8" t="n">
-        <v>1222.906241876376</v>
+        <v>494.1501011631125</v>
       </c>
       <c r="D8" t="n">
-        <v>864.6405432696254</v>
+        <v>135.884402556362</v>
       </c>
       <c r="E8" t="n">
-        <v>478.8522906713811</v>
+        <v>135.884402556362</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>128.9389018071586</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>115.0154977457495</v>
       </c>
       <c r="H8" t="n">
         <v>53.94298182036445</v>
@@ -4804,19 +4804,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V8" t="n">
-        <v>2642.120401548716</v>
+        <v>2366.086203674652</v>
       </c>
       <c r="W8" t="n">
-        <v>2642.120401548716</v>
+        <v>2013.317548404538</v>
       </c>
       <c r="X8" t="n">
-        <v>2368.607930856721</v>
+        <v>1639.851790143458</v>
       </c>
       <c r="Y8" t="n">
-        <v>1978.468598880909</v>
+        <v>1249.712458167646</v>
       </c>
     </row>
     <row r="9">
@@ -4883,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>520.9088977430002</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>351.9727148150933</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>201.8560754027576</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>53.94298182036445</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
         <v>53.94298182036445</v>
@@ -5007,7 +5007,7 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>702.55736257324</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5020,31 +5020,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F11" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805458</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.822278382245</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J11" t="n">
         <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5053,37 +5053,37 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O11" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5117,28 +5117,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K12" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L12" t="n">
-        <v>327.180197328635</v>
+        <v>658.5774644300486</v>
       </c>
       <c r="M12" t="n">
-        <v>647.5155168583368</v>
+        <v>1426.94561082251</v>
       </c>
       <c r="N12" t="n">
-        <v>1138.699705022018</v>
+        <v>1771.466266460128</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5175,46 +5175,46 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>324.3840174432676</v>
+        <v>97.21709146028982</v>
       </c>
       <c r="C13" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028982</v>
       </c>
       <c r="D13" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028982</v>
       </c>
       <c r="E13" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F13" t="n">
-        <v>155.4478345153607</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J13" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5226,25 +5226,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S13" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T13" t="n">
-        <v>1498.916270557902</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1017.064856369038</v>
       </c>
       <c r="V13" t="n">
-        <v>1244.231782352015</v>
+        <v>1017.064856369038</v>
       </c>
       <c r="W13" t="n">
-        <v>954.8146123150548</v>
+        <v>727.647686332077</v>
       </c>
       <c r="X13" t="n">
-        <v>726.8250614170374</v>
+        <v>499.6581354340597</v>
       </c>
       <c r="Y13" t="n">
-        <v>506.0324822735073</v>
+        <v>278.8655562905295</v>
       </c>
     </row>
     <row r="14">
@@ -5254,16 +5254,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F14" t="n">
         <v>904.3190116155888</v>
@@ -5275,19 +5275,19 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J14" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M14" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N14" t="n">
         <v>3183.709822619127</v>
@@ -5296,34 +5296,34 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R14" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="15">
@@ -5345,40 +5345,40 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G15" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H15" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J15" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K15" t="n">
-        <v>97.21709146028584</v>
+        <v>222.5746515181232</v>
       </c>
       <c r="L15" t="n">
-        <v>97.21709146028584</v>
+        <v>836.4717212750119</v>
       </c>
       <c r="M15" t="n">
-        <v>865.5852378527472</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="N15" t="n">
-        <v>1669.996816116898</v>
+        <v>1604.839867667473</v>
       </c>
       <c r="O15" t="n">
-        <v>2033.878325127062</v>
+        <v>1853.593281751436</v>
       </c>
       <c r="P15" t="n">
-        <v>2554.178946862809</v>
+        <v>2373.893903487183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C16" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D16" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F16" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I16" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J16" t="n">
         <v>109.5997839241957</v>
@@ -5460,28 +5460,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1387.841167119728</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T16" t="n">
-        <v>1387.841167119728</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U16" t="n">
-        <v>1387.841167119728</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V16" t="n">
-        <v>1133.156678913841</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W16" t="n">
-        <v>843.7395088768801</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X16" t="n">
-        <v>784.2147252787242</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y16" t="n">
-        <v>563.4221461351941</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="17">
@@ -5506,34 +5506,34 @@
         <v>904.319011615589</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5603,10 +5603,10 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M18" t="n">
-        <v>1819.161927111988</v>
+        <v>2030.299435654558</v>
       </c>
       <c r="N18" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O18" t="n">
         <v>2623.573505376138</v>
@@ -5700,22 +5700,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S19" t="n">
-        <v>1375.025382843599</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T19" t="n">
-        <v>1151.239967633105</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U19" t="n">
-        <v>862.1113288466635</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V19" t="n">
-        <v>607.4268406407766</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X19" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y19" t="n">
         <v>97.21709146028584</v>
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
@@ -5752,10 +5752,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5788,16 +5788,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5834,13 +5834,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>436.8967109626376</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L21" t="n">
-        <v>1050.793780719526</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M21" t="n">
-        <v>1819.161927111988</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N21" t="n">
         <v>2623.573505376138</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028584</v>
+        <v>734.3105644220436</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028584</v>
+        <v>565.3743814941367</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028584</v>
+        <v>565.3743814941367</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028584</v>
+        <v>565.3743814941367</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028584</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028584</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5937,25 +5937,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1075.21084526296</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>786.0822064765186</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V22" t="n">
-        <v>531.3977182706318</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W22" t="n">
-        <v>241.9805482336712</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028584</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028584</v>
+        <v>734.3105644220436</v>
       </c>
     </row>
     <row r="23">
@@ -5968,70 +5968,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J23" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514087</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6056,34 +6056,34 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028583</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M24" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N24" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="O24" t="n">
-        <v>2623.573505376138</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P24" t="n">
         <v>2623.573505376138</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
@@ -6177,22 +6177,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T25" t="n">
-        <v>1298.996260473455</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U25" t="n">
-        <v>1009.867621687013</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>835.416391538794</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>545.9992215018333</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>318.0096706038159</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G26" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
         <v>1590.888347795206</v>
@@ -6250,22 +6250,22 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
         <v>3205.060556590537</v>
@@ -6293,19 +6293,19 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K27" t="n">
         <v>508.1073603047985</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I28" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J28" t="n">
         <v>109.5997839241957</v>
@@ -6411,25 +6411,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U28" t="n">
-        <v>1299.436222111439</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V28" t="n">
-        <v>1044.751733905552</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W28" t="n">
-        <v>755.3345638685918</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y28" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="29">
@@ -6442,16 +6442,16 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6460,13 +6460,13 @@
         <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6487,25 +6487,25 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T29" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6539,19 +6539,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>436.8967109626376</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>1050.793780719526</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N30" t="n">
         <v>2623.573505376138</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
         <v>109.5997839241957</v>
@@ -6645,28 +6645,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R31" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S31" t="n">
-        <v>1298.996260473455</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T31" t="n">
-        <v>1158.436939387592</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U31" t="n">
-        <v>869.3083006011506</v>
+        <v>675.007103038344</v>
       </c>
       <c r="V31" t="n">
-        <v>614.6238123952637</v>
+        <v>420.3226148324571</v>
       </c>
       <c r="W31" t="n">
-        <v>325.2066423583032</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="X31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y31" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="32">
@@ -6679,19 +6679,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155893</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
         <v>179.8222783822463</v>
@@ -6709,40 +6709,40 @@
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6779,16 +6779,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N33" t="n">
         <v>2623.573505376138</v>
@@ -6891,13 +6891,13 @@
         <v>1075.21084526296</v>
       </c>
       <c r="U34" t="n">
-        <v>786.0822064765186</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V34" t="n">
-        <v>531.3977182706318</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W34" t="n">
-        <v>241.9805482336712</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
         <v>97.21709146028587</v>
@@ -6928,40 +6928,40 @@
         <v>904.319011615589</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822461</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028562</v>
+        <v>97.2170914602857</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q35" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
         <v>4726.561275231264</v>
@@ -7013,19 +7013,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J36" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N36" t="n">
         <v>2623.573505376138</v>
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>610.8083514132643</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C37" t="n">
-        <v>441.8721684853574</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D37" t="n">
-        <v>392.0201325405893</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E37" t="n">
-        <v>244.1070389581962</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>109.5997839241957</v>
@@ -7101,10 +7101,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L37" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M37" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N37" t="n">
         <v>1049.608084974667</v>
@@ -7122,25 +7122,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S37" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T37" t="n">
-        <v>1275.130855347408</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V37" t="n">
-        <v>1020.446367141521</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W37" t="n">
-        <v>1020.446367141521</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X37" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y37" t="n">
-        <v>792.456816243504</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
     <row r="38">
@@ -7153,31 +7153,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7192,13 +7192,13 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,16 +7207,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7250,19 +7250,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>508.1073603047985</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>1122.004430061687</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7308,28 +7308,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>97.21709146028587</v>
+        <v>607.426577713243</v>
       </c>
       <c r="C40" t="n">
-        <v>97.21709146028587</v>
+        <v>607.426577713243</v>
       </c>
       <c r="D40" t="n">
-        <v>97.21709146028587</v>
+        <v>457.3099383009072</v>
       </c>
       <c r="E40" t="n">
-        <v>97.21709146028587</v>
+        <v>394.5250474102529</v>
       </c>
       <c r="F40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="G40" t="n">
-        <v>97.21709146028587</v>
+        <v>247.6350999123426</v>
       </c>
       <c r="H40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
         <v>109.5997839241957</v>
@@ -7362,22 +7362,22 @@
         <v>1298.996260473455</v>
       </c>
       <c r="T40" t="n">
-        <v>1075.21084526296</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U40" t="n">
-        <v>869.3083006011507</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="V40" t="n">
-        <v>614.6238123952638</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="W40" t="n">
-        <v>325.2066423583032</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="X40" t="n">
-        <v>97.21709146028587</v>
+        <v>1009.867621687013</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.21709146028587</v>
+        <v>789.0750425434827</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D41" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G41" t="n">
         <v>488.193237080547</v>
@@ -7411,28 +7411,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514079</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N41" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O41" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P41" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q41" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R41" t="n">
         <v>4860.854573014293</v>
@@ -7490,16 +7490,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J42" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K42" t="n">
-        <v>508.1073603047986</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L42" t="n">
-        <v>1122.004430061688</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M42" t="n">
-        <v>1890.372576454149</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N42" t="n">
         <v>2623.573505376138</v>
@@ -7569,16 +7569,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>109.5997839241958</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K43" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L43" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M43" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N43" t="n">
         <v>1049.608084974667</v>
@@ -7587,16 +7587,16 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P43" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R43" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S43" t="n">
-        <v>1298.996260473455</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T43" t="n">
         <v>1158.436939387592</v>
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G44" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822459</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643325</v>
       </c>
       <c r="P44" t="n">
         <v>4454.632848899128</v>
@@ -7672,28 +7672,28 @@
         <v>4801.627437207831</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T44" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="45">
@@ -7715,28 +7715,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G45" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H45" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J45" t="n">
-        <v>263.5382936126483</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="K45" t="n">
-        <v>674.428562457161</v>
+        <v>508.1073603047985</v>
       </c>
       <c r="L45" t="n">
-        <v>1288.32563221405</v>
+        <v>1122.004430061687</v>
       </c>
       <c r="M45" t="n">
-        <v>2056.693778606511</v>
+        <v>1890.372576454149</v>
       </c>
       <c r="N45" t="n">
         <v>2623.573505376138</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="C46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K46" t="n">
-        <v>259.7851881688073</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L46" t="n">
-        <v>507.4972331799366</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M46" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471193</v>
       </c>
       <c r="N46" t="n">
         <v>1049.608084974667</v>
@@ -7824,34 +7824,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P46" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q46" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R46" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1187.921157035281</v>
+        <v>1382.222354598087</v>
       </c>
       <c r="T46" t="n">
-        <v>964.1357418247865</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U46" t="n">
-        <v>675.0071030383447</v>
+        <v>869.3083006011507</v>
       </c>
       <c r="V46" t="n">
-        <v>420.3226148324578</v>
+        <v>614.6238123952638</v>
       </c>
       <c r="W46" t="n">
-        <v>130.9054447954972</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="Y46" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8069,7 +8069,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>194.3570488013782</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9008,16 +9008,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
@@ -9257,7 +9257,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -9728,13 +9728,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>178.3913131276568</v>
       </c>
       <c r="O24" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -10846,7 +10846,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23418,7 +23418,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>108.8451328388535</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -23466,16 +23466,16 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>228.672823393594</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23658,16 +23658,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
         <v>148.9138283675361</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>166.7801196268628</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23940,13 +23940,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>75.26883114644322</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,16 +24138,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>107.7719731846046</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,13 +24189,13 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>82.39383318338568</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24417,13 +24417,13 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>82.39383318338557</v>
       </c>
       <c r="V25" t="n">
-        <v>79.43092547709131</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>197.9208099836032</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>88.75210443657886</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24885,13 +24885,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>82.39383318338548</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>192.3581855871786</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>82.39383318338571</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>99.26195743289195</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>166.4935684633776</v>
@@ -25362,19 +25362,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S37" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>82.39383318338568</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>84.2769206648214</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H40" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>110.419245464272</v>
@@ -25602,22 +25602,22 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>82.39383318338568</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25836,10 +25836,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T43" t="n">
-        <v>82.39383318338525</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>82.39383318338567</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>192.3581855871779</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>782058.1194754181</v>
+        <v>782058.119475418</v>
       </c>
     </row>
     <row r="7">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>782058.119475418</v>
+        <v>782058.1194754179</v>
       </c>
     </row>
     <row r="15">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982127</v>
+        <v>615781.3273982124</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982125</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982129</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="F2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="G2" t="n">
+        <v>586543.5896065625</v>
+      </c>
+      <c r="H2" t="n">
+        <v>586543.5896065632</v>
+      </c>
+      <c r="I2" t="n">
+        <v>586543.5896065626</v>
+      </c>
+      <c r="J2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="K2" t="n">
+        <v>586543.5896065629</v>
+      </c>
+      <c r="L2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="F2" t="n">
-        <v>586543.5896065632</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="M2" t="n">
+        <v>586543.589606563</v>
+      </c>
+      <c r="N2" t="n">
         <v>586543.5896065627</v>
       </c>
-      <c r="H2" t="n">
-        <v>586543.5896065626</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="O2" t="n">
         <v>586543.5896065629</v>
-      </c>
-      <c r="J2" t="n">
-        <v>586543.5896065627</v>
-      </c>
-      <c r="K2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="L2" t="n">
-        <v>586543.589606563</v>
-      </c>
-      <c r="M2" t="n">
-        <v>586543.5896065624</v>
-      </c>
-      <c r="N2" t="n">
-        <v>586543.5896065629</v>
-      </c>
-      <c r="O2" t="n">
-        <v>586543.589606563</v>
       </c>
       <c r="P2" t="n">
         <v>586543.5896065629</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.0364768961</v>
+        <v>525160.0364768959</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>2.310193849552888e-10</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
       </c>
       <c r="D4" t="n">
-        <v>139059.139180619</v>
+        <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758693</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905759211</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758695</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>787.793690575921</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="J4" t="n">
-        <v>787.7936905759236</v>
+        <v>787.7936905757877</v>
       </c>
       <c r="K4" t="n">
         <v>787.7936905758695</v>
@@ -26450,13 +26450,13 @@
         <v>787.7936905758695</v>
       </c>
       <c r="M4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="N4" t="n">
         <v>787.7936905758695</v>
       </c>
       <c r="O4" t="n">
-        <v>787.7936905758696</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="P4" t="n">
         <v>787.7936905758695</v>
@@ -26478,10 +26478,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="F5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="G5" t="n">
         <v>91987.32594871662</v>
@@ -26490,25 +26490,25 @@
         <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="K5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="L5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="M5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="N5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871665</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871664</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-196104.7690603602</v>
+        <v>-196104.7690603606</v>
       </c>
       <c r="C6" t="n">
         <v>393863.110154184</v>
       </c>
       <c r="D6" t="n">
-        <v>393863.1101541844</v>
+        <v>393863.1101541838</v>
       </c>
       <c r="E6" t="n">
-        <v>-32366.15776934754</v>
+        <v>-31489.02563559734</v>
       </c>
       <c r="F6" t="n">
-        <v>492793.8787075491</v>
+        <v>493671.010841298</v>
       </c>
       <c r="G6" t="n">
-        <v>492793.8787075486</v>
+        <v>493671.0108412979</v>
       </c>
       <c r="H6" t="n">
-        <v>492793.8787075485</v>
+        <v>493671.0108412986</v>
       </c>
       <c r="I6" t="n">
-        <v>492793.8787075487</v>
+        <v>493671.010841298</v>
       </c>
       <c r="J6" t="n">
-        <v>316370.6595149556</v>
+        <v>317247.7916487053</v>
       </c>
       <c r="K6" t="n">
-        <v>492793.8787075488</v>
+        <v>493671.0108412982</v>
       </c>
       <c r="L6" t="n">
-        <v>492793.8787075488</v>
+        <v>493671.0108412981</v>
       </c>
       <c r="M6" t="n">
-        <v>357992.8634737112</v>
+        <v>358869.9956074613</v>
       </c>
       <c r="N6" t="n">
-        <v>492793.8787075487</v>
+        <v>493671.0108412981</v>
       </c>
       <c r="O6" t="n">
-        <v>492793.8787075485</v>
+        <v>493671.0108412982</v>
       </c>
       <c r="P6" t="n">
-        <v>492793.8787075487</v>
+        <v>493671.0108412982</v>
       </c>
     </row>
   </sheetData>
@@ -26746,7 +26746,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
@@ -26770,16 +26770,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370137</v>
+        <v>452.6387412370134</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990173</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>316.7920138765919</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,10 +27429,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>198.8403076858428</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27441,7 +27441,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
@@ -27599,13 +27599,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>63.37316471551443</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>137.2749573754759</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>37.24410088293922</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27669,10 +27669,10 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>25.16398464933172</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>157.4983735401877</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>263.460981998226</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27900,7 +27900,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27912,13 +27912,13 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>98.95375469339439</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>193.2687479352325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28110,7 +28110,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28256,7 +28256,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>-2.676105889115889e-12</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -28338,7 +28338,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>1.13686837721616e-12</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-1.800799509510398e-12</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29334,7 +29334,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -31138,7 +31138,7 @@
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.43447689993462</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31366,13 +31366,13 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649102</v>
+        <v>87.78329382423951</v>
       </c>
       <c r="L6" t="n">
-        <v>132.99849770713</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
         <v>205.8702969983122</v>
@@ -31603,7 +31603,7 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31618,13 +31618,13 @@
         <v>211.31907117367</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>149.8971812516343</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479577</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
         <v>50.44659727034982</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,46 +31831,46 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>334.7447142438522</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>148.1449823495585</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31916,7 +31916,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31931,10 +31931,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31943,16 +31943,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32083,25 +32083,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M15" t="n">
         <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>116.2910049759612</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>341.0678223458549</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>171.3687184629556</v>
       </c>
       <c r="R15" t="n">
-        <v>100.1578341526431</v>
+        <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
         <v>33.17612723677464</v>
@@ -32323,10 +32323,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>212.6272478467031</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -32554,7 +32554,7 @@
         <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
         <v>387.8120847358985</v>
@@ -32563,7 +32563,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32800,13 +32800,13 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>392.6063366508803</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32970,7 +32970,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S26" t="n">
         <v>76.06970478104648</v>
@@ -33207,7 +33207,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
-        <v>209.6945076446483</v>
+        <v>209.6945076446492</v>
       </c>
       <c r="S29" t="n">
         <v>76.06970478104648</v>
@@ -33262,10 +33262,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>216.4869287318327</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
         <v>387.8120847358985</v>
@@ -33274,7 +33274,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33429,7 +33429,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565529</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33444,7 +33444,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
-        <v>209.6945076446492</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
         <v>76.06970478104648</v>
@@ -33499,7 +33499,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
         <v>288.4168775622982</v>
@@ -33511,7 +33511,7 @@
         <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -33648,16 +33648,16 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041488</v>
@@ -33666,7 +33666,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N35" t="n">
         <v>595.6470695927186</v>
@@ -33675,7 +33675,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q35" t="n">
         <v>360.4902833647496</v>
@@ -33684,7 +33684,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33727,7 +33727,7 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
@@ -33736,7 +33736,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K36" t="n">
         <v>288.4168775622982</v>
@@ -33745,10 +33745,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N36" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33763,10 +33763,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33827,7 +33827,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33839,16 +33839,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,16 +33885,16 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041488</v>
@@ -33903,7 +33903,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N38" t="n">
         <v>595.6470695927186</v>
@@ -33912,7 +33912,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q38" t="n">
         <v>360.4902833647496</v>
@@ -33921,7 +33921,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33964,7 +33964,7 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
@@ -33973,7 +33973,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K39" t="n">
         <v>288.4168775622982</v>
@@ -33982,10 +33982,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>392.6063366508803</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34000,10 +34000,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34064,7 +34064,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34076,16 +34076,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176652</v>
@@ -34134,37 +34134,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q41" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U41" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34207,22 +34207,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K42" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L42" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N42" t="n">
-        <v>392.6063366508798</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -34240,7 +34240,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H43" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M43" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O43" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P43" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S43" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H44" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I44" t="n">
         <v>128.6967545176652</v>
@@ -34371,37 +34371,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446464</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,22 +34444,22 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>168.7478056215734</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>452.5584109724848</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N45" t="n">
-        <v>224.6051223555644</v>
+        <v>392.6063366508803</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -34477,7 +34477,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H46" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K46" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L46" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M46" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N46" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R46" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S46" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U46" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34786,10 +34786,10 @@
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
@@ -35017,10 +35017,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L6" t="n">
-        <v>365.284463230715</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>401.1632560839194</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535667</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>232.285965523585</v>
+        <v>567.0306797674372</v>
       </c>
       <c r="M12" t="n">
-        <v>323.5710298279816</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N12" t="n">
-        <v>496.1456446097787</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O12" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M15" t="n">
         <v>776.1294408004661</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>367.5570798082463</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P15" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>241.4642321127832</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35971,13 +35971,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M18" t="n">
-        <v>536.1982776746847</v>
+        <v>749.4684883237461</v>
       </c>
       <c r="N18" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36202,7 +36202,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
         <v>620.0980502594834</v>
@@ -36211,7 +36211,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N21" t="n">
-        <v>812.5369477415663</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
@@ -36448,13 +36448,13 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N24" t="n">
-        <v>740.6069989111005</v>
+        <v>47.04960104432353</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>343.1107267700523</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -36922,7 +36922,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N30" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -37077,7 +37077,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37092,7 +37092,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.8253897034995</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
         <v>415.0406756005178</v>
@@ -37159,7 +37159,7 @@
         <v>776.1294408004661</v>
       </c>
       <c r="N33" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L35" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37329,7 +37329,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
@@ -37393,10 +37393,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N36" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K37" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L37" t="n">
         <v>250.2141868799285</v>
@@ -37478,13 +37478,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O37" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P37" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q37" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,13 +37545,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L38" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N38" t="n">
         <v>803.5809304081118</v>
@@ -37566,7 +37566,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
         <v>415.0406756005178</v>
@@ -37630,10 +37630,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>740.6069989111005</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K40" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L40" t="n">
         <v>250.2141868799285</v>
@@ -37715,13 +37715,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O40" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P40" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q40" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q41" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,19 +37858,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L42" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
-        <v>740.6069989111</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
@@ -37937,19 +37937,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K43" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L43" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M43" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N43" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O43" t="n">
         <v>236.2373515206029</v>
@@ -37958,7 +37958,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081121</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349674</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,19 +38095,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>168.0012142953156</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>776.1294408004663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N45" t="n">
-        <v>572.6057846157846</v>
+        <v>740.6069989111005</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38174,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.50777016556556</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K46" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L46" t="n">
-        <v>250.2141868799286</v>
+        <v>250.2141868799285</v>
       </c>
       <c r="M46" t="n">
-        <v>274.3098411789726</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N46" t="n">
-        <v>273.2768778056037</v>
+        <v>273.2768778056036</v>
       </c>
       <c r="O46" t="n">
         <v>236.2373515206029</v>
@@ -38195,7 +38195,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q46" t="n">
-        <v>39.22569997187479</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
